--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>LYFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>955700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1017100</v>
+      </c>
+      <c r="F8" s="3">
         <v>955600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>867300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>776000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>669600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>585000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>504900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>397200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>344600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>303500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>238900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>676200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>649900</v>
+      </c>
+      <c r="F9" s="3">
         <v>730500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>782100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>650100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>485600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>415100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>360600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>320500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>264000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>237300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>187000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>279500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>367200</v>
+      </c>
+      <c r="F10" s="3">
         <v>225100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>85200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>125900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>184000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>169900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>144300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>76700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>80600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>66200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>51900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>258700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>276600</v>
+      </c>
+      <c r="F12" s="3">
         <v>288300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>309800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>631000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>96100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>77200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>64400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>63200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>47700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>37200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>28200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,31 +963,37 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1369800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1398900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1446500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1540200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1932900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>939600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>853600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>698500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>642600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>592000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>503100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>369500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-414100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-381800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-490900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-672900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-270000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-268600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-193600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-245400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-247400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-199600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-130600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,84 +1176,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F20" s="3">
         <v>29300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>29600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>19800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>20600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>15000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>11400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-361000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-333900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-431400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-612200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
         <v>-246100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-232800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-396400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-358000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-461600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-643200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-249300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-248700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-178700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-233900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-239700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-194100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-126200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-398100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-356100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-463500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-644200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-248900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-249200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-178900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-234300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-239800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-194200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-126400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-398100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-356100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-463500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-644200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-248900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-249200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-178900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-234300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-239800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-194200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-126400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-29300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-29600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-19800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-20600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-15000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-11400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-398100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-356100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-463500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-644200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-248900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-249200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-178900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-234300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-239800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-194200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-126400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-398100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-356100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-463500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-644200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-248900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-249200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-178900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-234300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-239800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-194200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-126400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,37 +1965,39 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>597900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>358300</v>
+      </c>
+      <c r="F41" s="3">
         <v>543900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>417400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>329500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -1832,37 +2005,43 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2072000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2491800</v>
+      </c>
+      <c r="F42" s="3">
         <v>2572600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>2892900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>705400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1870,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,37 +2137,43 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>474900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>397200</v>
+      </c>
+      <c r="F45" s="3">
         <v>426400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>367500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>345500</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -1984,37 +2181,43 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3144800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3247400</v>
+      </c>
+      <c r="F46" s="3">
         <v>3542800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3677800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1380400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="K46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2022,31 +2225,37 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2060,37 +2269,43 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>668300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>629900</v>
+      </c>
+      <c r="F48" s="3">
         <v>571900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>485200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>425100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2098,37 +2313,43 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>269300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>241600</v>
+      </c>
+      <c r="F49" s="3">
         <v>241000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>250500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>259200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,37 +2445,43 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1479400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1572500</v>
+      </c>
+      <c r="F52" s="3">
         <v>1379400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1291000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1176200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,37 +2533,43 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5571800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5691400</v>
+      </c>
+      <c r="F54" s="3">
         <v>5735200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5704500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3240900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
+      <c r="K54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,37 +2617,39 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>540500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>38800</v>
+      </c>
+      <c r="F57" s="3">
         <v>36200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>12700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>39400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2396,31 +2657,37 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>80000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2434,37 +2701,43 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1930700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2412500</v>
+      </c>
+      <c r="F59" s="3">
         <v>2344600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2113100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1712700</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2472,37 +2745,43 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2551100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2451400</v>
+      </c>
+      <c r="F60" s="3">
         <v>2380800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2125800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1752100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
+      <c r="K60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -2510,13 +2789,19 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>102800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2548,37 +2833,43 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>310300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>385900</v>
+      </c>
+      <c r="F62" s="3">
         <v>364900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>301500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>268400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,37 +3009,43 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2964300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2837300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2745600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2427300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2020500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0</v>
+      <c r="K66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2842,14 +3177,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>5152000</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,37 +3247,43 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5945600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5547600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,37 +3423,43 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2607500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2854100</v>
+      </c>
+      <c r="F76" s="3">
         <v>2989500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3277100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
+      <c r="K76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-398100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-356100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-463500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-644200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-248900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-249200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-178900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-234300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-239800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-194200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-126400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,37 +3626,39 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F83" s="3">
         <v>30100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>31100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>23100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="3">
         <v>2600</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,37 +3886,43 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-206900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="F89" s="3">
         <v>10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>15300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-84800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3">
         <v>-36000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3497,8 +3930,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,37 +3952,39 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-60100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-43200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-25100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="3">
         <v>-17200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,37 +4080,43 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>787700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="F94" s="3">
         <v>199900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>670300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3">
         <v>251700</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,37 +4318,43 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-66600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2411000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-788200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3">
         <v>39400</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -3871,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3880,28 +4377,28 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>564000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="F102" s="3">
         <v>143200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>38600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-202600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3">
         <v>255200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>LYFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>339300</v>
+      </c>
+      <c r="E8" s="3">
         <v>955700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1017100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>955600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>867300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>776000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>669600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>585000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>504900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>397200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>344600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>303500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>238900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>676200</v>
+        <v>337100</v>
       </c>
       <c r="E9" s="3">
+        <v>613700</v>
+      </c>
+      <c r="F9" s="3">
         <v>649900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>730500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>782100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>650100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>485600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>415100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>360600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>320500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>264000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>237300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>187000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>279500</v>
+        <v>2200</v>
       </c>
       <c r="E10" s="3">
+        <v>342000</v>
+      </c>
+      <c r="F10" s="3">
         <v>367200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>225100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>85200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>125900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>184000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>169900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>144300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>76700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>80600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>66200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>191400</v>
+      </c>
+      <c r="E12" s="3">
         <v>258700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>276600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>288300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>309800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>631000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>96100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>77200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>64400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>63200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>47700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>37200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,16 +986,19 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>20000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>35300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>65100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
@@ -995,8 +1015,8 @@
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>826800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1369800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1398900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1446500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1540200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1932900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>939600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>853600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>698500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>642600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>592000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>503100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>369500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-487500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-414100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-381800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-490900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-672900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-270000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-268600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-193600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-245400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-247400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-199600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-130600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,85 +1211,89 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>17700</v>
+        <v>12200</v>
       </c>
       <c r="E20" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F20" s="3">
         <v>23800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>29600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>19800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>20600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-361000</v>
+        <v>-430900</v>
       </c>
       <c r="E21" s="3">
+        <v>-359500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-333900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-431400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-612200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>-246100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>-232800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1266,31 +1303,34 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-481900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-396400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-358000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-461600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-643200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-249300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-248700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-178700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-233900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-239700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-194100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-126200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-437100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-398100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-356100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-463500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-644200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-248900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-249200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-178900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-234300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-239800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-194200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-126400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-437100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-398100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-356100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-463500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-644200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-248900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-249200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-178900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-234300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-239800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-194200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-126400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17700</v>
+        <v>-12200</v>
       </c>
       <c r="E32" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-23800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-29600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-19800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-20600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-437100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-398100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-356100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-463500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-644200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-248900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-249200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-178900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-234300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-239800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-194200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-126400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-437100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-398100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-356100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-463500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-644200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-248900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-249200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-178900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-234300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-239800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-194200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-126400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,29 +2053,30 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>841100</v>
+      </c>
+      <c r="E41" s="3">
         <v>597900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>358300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>543900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>417400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>329500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1999,8 +2086,8 @@
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2011,29 +2098,32 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1934900</v>
+      </c>
+      <c r="E42" s="3">
         <v>2072000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2491800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2572600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2892900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>705400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2043,8 +2133,8 @@
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,29 +2239,32 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>320300</v>
+      </c>
+      <c r="E45" s="3">
         <v>474900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>397200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>426400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>367500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>345500</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2175,8 +2274,8 @@
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2187,29 +2286,32 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3096200</v>
+      </c>
+      <c r="E46" s="3">
         <v>3144800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3247400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3542800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3677800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1380400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2219,8 +2321,8 @@
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2231,16 +2333,19 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>10000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>16</v>
+      <c r="E47" s="3">
+        <v>10000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>16</v>
@@ -2257,8 +2362,8 @@
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2275,29 +2380,32 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>650700</v>
+      </c>
+      <c r="E48" s="3">
         <v>668300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>629900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>571900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>485200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>425100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2307,8 +2415,8 @@
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2319,29 +2427,32 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>262500</v>
+      </c>
+      <c r="E49" s="3">
         <v>269300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>241600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>241000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>250500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>259200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2351,8 +2462,8 @@
       <c r="L49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,29 +2568,32 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1195000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1479400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1572500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1379400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1291000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1176200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2483,8 +2603,8 @@
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,29 +2662,32 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5214400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5571800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5691400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5735200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5704500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3240900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2571,8 +2697,8 @@
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
+      <c r="M54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,29 +2749,30 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E57" s="3">
         <v>540500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2651,8 +2782,8 @@
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2663,17 +2794,20 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E58" s="3">
         <v>80000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2689,8 +2823,8 @@
       <c r="J58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2707,29 +2841,32 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1858900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1930700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2412500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2344600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2113100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1712700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2739,8 +2876,8 @@
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2751,29 +2888,32 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1979600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2551100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2451400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2380800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2125800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1752100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2783,8 +2923,8 @@
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
+      <c r="M60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -2795,17 +2935,20 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>638700</v>
+      </c>
+      <c r="E61" s="3">
         <v>102800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2839,29 +2982,32 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>299600</v>
+      </c>
+      <c r="E62" s="3">
         <v>310300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>385900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>364900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>301500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>268400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2871,8 +3017,8 @@
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,29 +3170,32 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2917900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2964300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2837300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2745600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2427300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2020500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3047,8 +3205,8 @@
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
+      <c r="M66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3183,11 +3351,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>5152000</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,29 +3424,32 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6382800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3285,8 +3459,8 @@
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,29 +3612,32 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2296600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2607500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2854100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2989500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3277100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3461,8 +3647,8 @@
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
+      <c r="M76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-437100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-398100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-356100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-463500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-644200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-248900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-249200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-178900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-234300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-239800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-194200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-126400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,40 +3826,41 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E83" s="3">
         <v>35500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="3">
         <v>2600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,40 +4106,43 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-751700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-206900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-46200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-84800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="3">
         <v>-36000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,40 +4174,41 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-60100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-43200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,40 +4313,43 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E94" s="3">
         <v>787700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-93100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>199900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>670300</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="3">
         <v>251700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,40 +4567,43 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>584600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-66600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2411000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-788200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="3">
         <v>39400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4368,40 +4614,43 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
+      <c r="J101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4412,40 +4661,43 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="E102" s="3">
         <v>564000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-121200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>143200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>38600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-202600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="3">
         <v>255200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>499700</v>
+      </c>
+      <c r="E8" s="3">
         <v>339300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>955700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1017100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>955600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>867300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>776000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>669600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>585000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>504900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>397200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>344600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>303500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>238900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>384800</v>
+      </c>
+      <c r="E9" s="3">
         <v>337100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>613700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>649900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>730500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>782100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>650100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>485600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>415100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>360600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>320500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>264000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>237300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>187000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>342000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>367200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>225100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>85200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>125900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>184000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>169900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>144300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>76700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>80600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>66200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E12" s="3">
         <v>191400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>258700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>276600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>288300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>309800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>631000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>96100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>77200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>64400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>63200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>47700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>37200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,20 +1006,23 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>35300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>65100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1018,8 +1038,8 @@
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>953100</v>
+      </c>
+      <c r="E17" s="3">
         <v>826800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1369800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1398900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1446500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1540200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1932900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>939600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>853600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>698500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>642600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>592000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>503100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>369500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-487500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-414100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-381800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-490900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-672900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-270000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-268600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-193600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-245400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-247400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-199600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-130600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,91 +1245,95 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E20" s="3">
         <v>12200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>19200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>23800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>29300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>29600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>19800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>20600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-404200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-430900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-359500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-333900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-431400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-612200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>-246100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>-232800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1306,20 +1343,23 @@
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E22" s="3">
         <v>6500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1332,8 +1372,8 @@
       <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-458400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-481900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-396400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-358000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-461600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-643200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-249300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-248700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-178700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-233900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-239700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-194100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-126200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-44800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-459500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-437100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-398100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-356100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-463500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-644200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-248900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-249200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-178900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-234300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-239800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-194200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-126400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-459500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-437100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-398100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-356100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-463500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-644200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-248900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-249200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-178900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-234300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-239800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-194200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-126400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-19200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-23800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-29300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-29600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-19800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-20600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-459500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-437100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-398100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-356100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-463500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-644200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-248900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-249200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-178900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-234300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-239800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-194200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-126400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-459500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-437100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-398100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-356100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-463500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-644200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-248900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-249200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-178900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-234300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-239800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-194200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-126400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,32 +2140,33 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>424800</v>
+      </c>
+      <c r="E41" s="3">
         <v>841100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>597900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>358300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>543900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>417400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>329500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2089,8 +2176,8 @@
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2101,32 +2188,35 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2028600</v>
+      </c>
+      <c r="E42" s="3">
         <v>1934900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2072000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2491800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2572600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2892900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>705400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2136,8 +2226,8 @@
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,32 +2338,35 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>299600</v>
+      </c>
+      <c r="E45" s="3">
         <v>320300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>474900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>397200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>426400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>367500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>345500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2277,8 +2376,8 @@
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2289,32 +2388,35 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2753100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3096200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3144800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3247400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3542800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3677800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1380400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2324,8 +2426,8 @@
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
+      <c r="N46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2347,8 +2452,8 @@
       <c r="E47" s="3">
         <v>10000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>16</v>
+      <c r="F47" s="3">
+        <v>10000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>16</v>
@@ -2365,8 +2470,8 @@
       <c r="K47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2383,32 +2488,35 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>619700</v>
+      </c>
+      <c r="E48" s="3">
         <v>650700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>668300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>629900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>571900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>485200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>425100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2418,8 +2526,8 @@
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2430,32 +2538,35 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>254500</v>
+      </c>
+      <c r="E49" s="3">
         <v>262500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>269300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>241600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>241000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>250500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>259200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2465,8 +2576,8 @@
       <c r="M49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,32 +2688,35 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1331000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1195000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1479400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1572500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1379400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1291000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1176200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2606,8 +2726,8 @@
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,32 +2788,35 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4968300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5214400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5571800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5691400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5735200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5704500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3240900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2700,8 +2826,8 @@
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
+      <c r="N54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,32 +2880,33 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E57" s="3">
         <v>48200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>540500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2785,8 +2916,8 @@
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2797,20 +2928,23 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E58" s="3">
         <v>72400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>80000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2826,8 +2960,8 @@
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2844,32 +2978,35 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1955200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1858900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1930700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2412500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2344600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2113100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1712700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2879,8 +3016,8 @@
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -2891,32 +3028,35 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2045200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1979600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2551100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2451400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2380800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2125800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1752100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2926,8 +3066,8 @@
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
+      <c r="N60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -2938,20 +3078,23 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>633400</v>
+      </c>
+      <c r="E61" s="3">
         <v>638700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>102800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2985,32 +3128,35 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>286700</v>
+      </c>
+      <c r="E62" s="3">
         <v>299600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>310300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>385900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>364900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>301500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>268400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3020,8 +3166,8 @@
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,32 +3328,35 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2965200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2917900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2964300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2837300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2745600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2427300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2020500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3208,8 +3366,8 @@
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
+      <c r="N66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3354,11 +3522,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>5152000</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,32 +3598,35 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6842300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3462,8 +3636,8 @@
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,32 +3798,35 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2003100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2296600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2607500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2854100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2989500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3277100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3650,8 +3836,8 @@
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
+      <c r="N76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-459500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-437100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-398100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-356100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-463500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-644200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-248900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-249200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-178900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-234300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-239800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-194200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-126400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,43 +4025,44 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E83" s="3">
         <v>44500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,43 +4323,46 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-155600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-751700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-206900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-46200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-84800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="3">
         <v>-36000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,43 +4395,44 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-60100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="3">
         <v>-17200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,43 +4543,46 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-325500</v>
+      </c>
+      <c r="E94" s="3">
         <v>92900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>787700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-93100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>199900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>670300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="3">
         <v>251700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,43 +4813,46 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E100" s="3">
         <v>584600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-66600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2411000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-788200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="3">
         <v>39400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4617,43 +4863,46 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
+      <c r="K101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4664,43 +4913,46 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-513100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-74500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>564000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-121200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>143200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-202600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3">
         <v>255200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>569900</v>
+      </c>
+      <c r="E8" s="3">
         <v>499700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>339300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>955700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1017100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>955600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>867300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>776000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>669600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>585000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>504900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>397200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>344600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>303500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>238900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>488400</v>
+      </c>
+      <c r="E9" s="3">
         <v>384800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>337100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>613700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>649900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>730500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>782100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>650100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>485600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>415100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>360600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>320500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>264000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>237300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>187000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E10" s="3">
         <v>115000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>342000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>367200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>225100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>85200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>125900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>184000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>169900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>144300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>76700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>80600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>66200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E12" s="3">
         <v>232100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>191400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>258700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>276600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>288300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>309800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>631000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>96100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>77200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>64400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>63200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>47700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>37200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,23 +1025,26 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>35300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>65100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1041,8 +1060,8 @@
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1023300</v>
+      </c>
+      <c r="E17" s="3">
         <v>953100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>826800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1369800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1398900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1446500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1540200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1932900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>939600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>853600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>698500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>642600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>592000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>503100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>369500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1185,49 +1214,52 @@
         <v>-453400</v>
       </c>
       <c r="E18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-487500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-414100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-381800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-490900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-672900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-270000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-268600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-193600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-245400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-247400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-199600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-130600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,97 +1278,101 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E20" s="3">
         <v>7500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>19200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>23800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>29300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>29600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>19800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-412800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-404200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-430900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-359500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-333900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-431400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-612200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>-246100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>-232800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1346,23 +1382,26 @@
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E22" s="3">
         <v>12500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1375,8 +1414,8 @@
       <c r="K22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1396,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-460600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-458400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-481900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-396400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-358000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-461600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-643200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-249300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-248700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-178700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-233900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-239700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-194100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-126200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-44800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-458200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-459500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-437100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-398100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-356100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-463500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-644200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-248900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-249200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-178900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-234300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-239800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-194200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-126400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-458200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-459500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-437100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-398100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-356100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-463500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-644200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-248900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-249200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-178900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-234300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-239800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-194200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-126400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-19200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-23800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-29300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-29600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-19800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-458200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-459500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-437100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-398100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-356100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-463500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-644200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-248900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-249200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-178900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-234300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-239800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-194200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-126400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-458200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-459500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-437100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-398100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-356100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-463500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-644200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-248900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-249200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-178900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-234300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-239800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-194200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-126400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,35 +2226,36 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>319700</v>
+      </c>
+      <c r="E41" s="3">
         <v>424800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>841100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>597900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>358300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>543900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>417400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>329500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2179,8 +2265,8 @@
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2191,35 +2277,38 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1931300</v>
+      </c>
+      <c r="E42" s="3">
         <v>2028600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1934900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2072000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2491800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2572600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2892900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>705400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2229,8 +2318,8 @@
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,35 +2436,38 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>343100</v>
+      </c>
+      <c r="E45" s="3">
         <v>299600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>320300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>474900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>397200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>426400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>367500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>345500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2379,8 +2477,8 @@
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2391,35 +2489,38 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2594100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2753100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3096200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3144800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3247400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3542800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3677800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1380400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2429,8 +2530,8 @@
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="O46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2455,8 +2559,8 @@
       <c r="F47" s="3">
         <v>10000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>16</v>
+      <c r="G47" s="3">
+        <v>10000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
@@ -2473,8 +2577,8 @@
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2491,35 +2595,38 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>589100</v>
+      </c>
+      <c r="E48" s="3">
         <v>619700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>650700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>668300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>629900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>571900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>485200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>425100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2529,8 +2636,8 @@
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2541,35 +2648,38 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>248500</v>
+      </c>
+      <c r="E49" s="3">
         <v>254500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>262500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>269300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>241600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>241000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>250500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>259200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2579,8 +2689,8 @@
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,35 +2807,38 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1237200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1331000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1195000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1479400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1572500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1379400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1291000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1176200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2729,8 +2848,8 @@
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,35 +2913,38 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4679000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4968300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5214400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5571800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5691400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5735200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5704500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3240900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2829,8 +2954,8 @@
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
+      <c r="O54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,35 +3010,36 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E57" s="3">
         <v>26000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>540500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>39400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2919,8 +3049,8 @@
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2931,23 +3061,26 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E58" s="3">
         <v>63900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>72400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>80000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2963,8 +3096,8 @@
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2981,35 +3114,38 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1933800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1955200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1858900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1930700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2412500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2344600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2113100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1712700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3019,8 +3155,8 @@
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3031,35 +3167,38 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2074500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2045200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1979600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2551100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2451400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2380800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2125800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1752100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3069,8 +3208,8 @@
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
+      <c r="O60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -3081,23 +3220,26 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>650800</v>
+      </c>
+      <c r="E61" s="3">
         <v>633400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>638700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>102800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3131,35 +3273,38 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>277500</v>
+      </c>
+      <c r="E62" s="3">
         <v>286700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>299600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>310300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>385900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>364900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>301500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>268400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3169,8 +3314,8 @@
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,35 +3485,38 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3002800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2965200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2917900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2964300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2837300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2745600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2427300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2020500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3369,8 +3526,8 @@
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
+      <c r="O66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3525,11 +3692,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>5152000</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,35 +3771,38 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7300400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6842300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3639,8 +3812,8 @@
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,35 +3983,38 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1676200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2003100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2296600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2607500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2854100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2989500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3277100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3839,8 +4024,8 @@
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
+      <c r="O76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-458200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-459500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-437100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-398100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-356100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-463500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-644200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-248900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-249200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-178900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-234300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-239800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-194200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-126400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,46 +4223,47 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E83" s="3">
         <v>41700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>44500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="3">
         <v>2600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,46 +4539,49 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-264600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-155600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-751700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-206900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-46200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-84800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="3">
         <v>-36000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,46 +4615,47 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-49700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-60100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="3">
         <v>-17200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,46 +4772,49 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>185400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-325500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>92900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>787700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-93100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>199900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>670300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="3">
         <v>251700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,46 +5058,49 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-32000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>584600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>18000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-66600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2411000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-788200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="3">
         <v>39400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -4866,46 +5111,49 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
+      <c r="L101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4916,46 +5164,49 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-102400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-513100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-74500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>564000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-121200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>143200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-202600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="3">
         <v>255200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E8" s="3">
         <v>569900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>499700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>339300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>955700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1017100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>955600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>867300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>776000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>669600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>585000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>504900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>397200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>344600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>303500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>238900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E9" s="3">
         <v>488400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>384800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>337100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>613700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>649900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>730500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>782100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>650100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>485600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>415100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>360600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>320500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>264000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>237300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>187000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E10" s="3">
         <v>81500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>115000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>342000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>367200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>225100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>85200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>125900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>184000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>169900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>144300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>76700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>80600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>66200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>238200</v>
+      </c>
+      <c r="E12" s="3">
         <v>215200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>232100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>191400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>258700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>276600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>288300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>309800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>631000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>96100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>77200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>64400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>63200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>47700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>37200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>28200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,26 +1045,29 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>35300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>65100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1025400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1023300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>953100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>826800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1369800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1398900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1446500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1540200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1932900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>939600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>853600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>698500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>642600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>592000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>503100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>369500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-453400</v>
+        <v>-416400</v>
       </c>
       <c r="E18" s="3">
         <v>-453400</v>
       </c>
       <c r="F18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-487500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-414100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-381800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-490900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-672900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-270000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-268600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-193600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-245400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-247400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-199600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-130600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,103 +1312,107 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>4900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>19200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>23800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>29300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>29600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-378400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-412800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-404200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-430900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-359500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-333900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-431400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-612200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>-246100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>-232800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1385,26 +1422,29 @@
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E22" s="3">
         <v>12100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1417,8 +1457,8 @@
       <c r="L22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-425400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-460600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-458400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-481900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-396400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-358000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-461600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-643200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-249300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-248700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-178700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-233900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-239700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-194100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-126200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-44800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-427300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-458200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-459500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-437100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-398100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-356100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-463500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-644200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-248900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-249200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-178900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-234300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-239800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-194200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-126400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-427300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-458200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-459500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-437100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-398100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-356100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-463500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-644200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-248900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-249200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-178900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-234300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-239800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-194200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-126400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-19200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-23800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-29300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-29600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-427300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-458200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-459500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-437100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-398100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-356100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-463500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-644200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-248900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-249200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-178900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-234300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-239800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-194200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-126400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-427300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-458200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-459500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-437100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-398100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-356100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-463500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-644200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-248900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-249200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-178900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-234300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-239800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-194200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-126400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,38 +2313,39 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>312200</v>
+      </c>
+      <c r="E41" s="3">
         <v>319700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>424800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>841100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>597900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>358300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>543900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>417400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>329500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2268,8 +2355,8 @@
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2280,38 +2367,41 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1925100</v>
+      </c>
+      <c r="E42" s="3">
         <v>1931300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2028600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1934900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2072000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2491800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2572600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2892900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>705400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2321,8 +2411,8 @@
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,38 +2535,41 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>343700</v>
+      </c>
+      <c r="E45" s="3">
         <v>343100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>299600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>320300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>474900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>397200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>426400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>367500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>345500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2480,8 +2579,8 @@
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2492,38 +2591,41 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2581000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2594100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2753100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3096200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3144800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3247400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3542800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3677800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1380400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2533,8 +2635,8 @@
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
+      <c r="P46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2545,13 +2647,16 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10000</v>
+        <v>10700</v>
       </c>
       <c r="E47" s="3">
         <v>10000</v>
@@ -2562,8 +2667,8 @@
       <c r="G47" s="3">
         <v>10000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>16</v>
+      <c r="H47" s="3">
+        <v>10000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>16</v>
@@ -2580,8 +2685,8 @@
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2598,38 +2703,41 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>569300</v>
+      </c>
+      <c r="E48" s="3">
         <v>589100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>619700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>650700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>668300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>629900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>571900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>485200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>425100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2639,8 +2747,8 @@
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2651,38 +2759,41 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E49" s="3">
         <v>248500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>254500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>262500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>269300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>241600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>241000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>250500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>259200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2692,8 +2803,8 @@
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,38 +2927,41 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1140900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1237200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1331000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1195000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1479400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1572500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1379400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1291000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1176200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2851,8 +2971,8 @@
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,38 +3039,41 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4545800</v>
+      </c>
+      <c r="E54" s="3">
         <v>4679000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4968300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5214400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5571800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5691400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5735200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5704500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3240900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2957,8 +3083,8 @@
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
+      <c r="P54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,38 +3141,39 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E57" s="3">
         <v>84100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>540500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3052,8 +3183,8 @@
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3064,26 +3195,29 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E58" s="3">
         <v>56600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>63900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>72400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>80000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3099,8 +3233,8 @@
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3117,38 +3251,41 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2097800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1933800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1955200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1858900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1930700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2412500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2344600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2113100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1712700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3158,8 +3295,8 @@
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3170,38 +3307,41 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2220800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2074500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2045200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1979600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2551100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2451400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2380800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2125800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1752100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3211,8 +3351,8 @@
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
+      <c r="P60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -3223,26 +3363,29 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>656400</v>
+      </c>
+      <c r="E61" s="3">
         <v>650800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>633400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>638700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>102800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3276,38 +3419,41 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>259800</v>
+      </c>
+      <c r="E62" s="3">
         <v>277500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>286700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>299600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>310300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>385900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>364900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>301500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>268400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3317,8 +3463,8 @@
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,38 +3643,41 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3137000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3002800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2965200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2917900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2964300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2837300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2745600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2427300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2020500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3529,8 +3687,8 @@
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
+      <c r="P66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3695,11 +3863,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>5152000</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,38 +3945,41 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7727800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7300400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6842300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3815,8 +3989,8 @@
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,38 +4169,41 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1408900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1676200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2003100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2296600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2607500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2854100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2989500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3277100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4027,8 +4213,8 @@
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
+      <c r="P76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-427300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-458200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-459500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-437100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-398100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-356100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-463500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-644200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-248900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-249200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-178900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-234300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-239800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-194200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-126400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,49 +4422,50 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E83" s="3">
         <v>35700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>44500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="3">
         <v>2600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,49 +4756,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-79500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-264600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-155600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-751700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-206900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-46200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-84800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="3">
         <v>-36000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,49 +4836,50 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-49700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-60100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="3">
         <v>-17200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,49 +5002,52 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>161100</v>
+      </c>
+      <c r="E94" s="3">
         <v>185400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-325500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>92900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>787700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-93100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>199900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>670300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="3">
         <v>251700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,49 +5304,52 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-32000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>584600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>18000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-66600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2411000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-788200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="3">
         <v>39400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5114,49 +5360,52 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5167,49 +5416,52 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-102400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-513100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-74500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>564000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-121200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>143200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>38600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-202600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="3">
         <v>255200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>765000</v>
+      </c>
+      <c r="E8" s="3">
         <v>609000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>569900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>499700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>339300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>955700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1017100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>955600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>867300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>776000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>669600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>585000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>504900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>397200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>344600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>303500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>238900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>420500</v>
+      </c>
+      <c r="E9" s="3">
         <v>501000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>488400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>384800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>337100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>613700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>649900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>730500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>782100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>650100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>485600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>415100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>360600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>320500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>264000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>237300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>187000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>344500</v>
+      </c>
+      <c r="E10" s="3">
         <v>108000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>81500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>115000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>342000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>367200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>225100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>85200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>125900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>184000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>169900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>144300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>76700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>80600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>66200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>51900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E12" s="3">
         <v>238200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>215200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>232100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>191400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>258700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>276600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>288300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>309800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>631000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>96100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>77200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>64400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>63200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>47700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>37200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>28200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,29 +1065,32 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>41500</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>35300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>65100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1086,8 +1106,8 @@
       <c r="N14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1005100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1025400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1023300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>953100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>826800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1369800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1398900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1446500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1540200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1932900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>939600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>853600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>698500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>642600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>592000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>503100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>369500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-240100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-416400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-453400</v>
       </c>
       <c r="F18" s="3">
         <v>-453400</v>
       </c>
       <c r="G18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-487500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-414100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-381800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-490900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-672900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-270000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-268600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-193600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-245400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-247400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-199600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-130600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,109 +1346,113 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>19200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>23800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>29300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>29600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-203800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-378400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-412800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-404200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-430900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-359500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-333900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-431400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-612200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>-246100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-232800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1425,29 +1462,32 @@
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E22" s="3">
         <v>12600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1460,8 +1500,8 @@
       <c r="M22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-251200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-425400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-460600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-458400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-481900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-396400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-358000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-461600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-643200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-249300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-248700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-178700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-233900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-239700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-194100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-126200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-44800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-251900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-427300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-458200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-459500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-437100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-398100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-356100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-463500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-644200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-248900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-249200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-178900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-234300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-239800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-194200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-126400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-251900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-427300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-458200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-459500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-437100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-398100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-356100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-463500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-644200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-248900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-249200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-178900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-234300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-239800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-194200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-126400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-19200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-23800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-29300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-29600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-251900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-427300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-458200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-459500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-437100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-398100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-356100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-463500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-644200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-248900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-249200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-178900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-234300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-239800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-194200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-126400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-251900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-427300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-458200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-459500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-437100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-398100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-356100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-463500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-644200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-248900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-249200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-178900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-234300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-239800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-194200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-126400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,41 +2400,42 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>484200</v>
+      </c>
+      <c r="E41" s="3">
         <v>312200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>319700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>424800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>841100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>597900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>358300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>543900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>417400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>329500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2358,8 +2445,8 @@
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2370,41 +2457,44 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1761300</v>
+      </c>
+      <c r="E42" s="3">
         <v>1925100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1931300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2028600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1934900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2072000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2491800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2572600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2892900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>705400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2414,8 +2504,8 @@
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,41 +2634,44 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E45" s="3">
         <v>343700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>343100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>299600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>320300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>474900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>397200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>426400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>367500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>345500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2582,8 +2681,8 @@
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2594,41 +2693,44 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2602600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2581000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2594100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2753100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3096200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3144800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3247400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3542800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3677800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1380400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2638,8 +2740,8 @@
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2650,16 +2752,19 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E47" s="3">
         <v>10700</v>
-      </c>
-      <c r="E47" s="3">
-        <v>10000</v>
       </c>
       <c r="F47" s="3">
         <v>10000</v>
@@ -2670,8 +2775,8 @@
       <c r="H47" s="3">
         <v>10000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>16</v>
+      <c r="I47" s="3">
+        <v>10000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>16</v>
@@ -2688,8 +2793,8 @@
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2706,41 +2811,44 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>570400</v>
+      </c>
+      <c r="E48" s="3">
         <v>569300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>589100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>619700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>650700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>668300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>629900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>571900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>485200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>425100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2750,8 +2858,8 @@
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2762,41 +2870,44 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>240300</v>
+      </c>
+      <c r="E49" s="3">
         <v>244000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>248500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>254500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>262500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>269300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>241600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>241000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>250500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>259200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2806,8 +2917,8 @@
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,41 +3047,44 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1082900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1140900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1237200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1331000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1195000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1479400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1572500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1379400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1291000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1176200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2974,8 +3094,8 @@
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,41 +3165,44 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4571400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4545800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4679000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4968300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5214400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5571800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5691400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5735200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5704500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3240900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3086,8 +3212,8 @@
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,41 +3272,42 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E57" s="3">
         <v>69900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>84100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>48200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>540500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3186,8 +3317,8 @@
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3198,29 +3329,32 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E58" s="3">
         <v>53200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>56600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>63900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>72400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>80000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3236,8 +3370,8 @@
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3254,41 +3388,44 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2156700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2097800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1933800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1955200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1858900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1930700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2412500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2344600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2113100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1712700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3298,8 +3435,8 @@
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3310,41 +3447,44 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2291500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2220800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2074500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2045200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1979600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2551100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2451400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2380800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2125800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1752100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3354,8 +3494,8 @@
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -3366,29 +3506,32 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>670400</v>
+      </c>
+      <c r="E61" s="3">
         <v>656400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>650800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>633400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>638700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>102800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3422,41 +3565,44 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>244800</v>
+      </c>
+      <c r="E62" s="3">
         <v>259800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>277500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>286700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>299600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>310300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>385900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>364900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>301500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>268400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3466,8 +3612,8 @@
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,41 +3801,44 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3206600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3137000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3002800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2965200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2917900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2964300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2837300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2745600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2427300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2020500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3690,8 +3848,8 @@
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3866,11 +4034,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>5152000</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,41 +4119,44 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7979700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7727800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7300400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6842300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3992,8 +4166,8 @@
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,41 +4355,44 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1364800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1408900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1676200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2003100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2296600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2607500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2854100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2989500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3277100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4216,8 +4402,8 @@
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-251900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-427300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-458200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-459500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-437100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-398100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-356100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-463500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-644200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-248900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-249200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-178900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-234300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-239800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-194200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-126400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,52 +4621,53 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E83" s="3">
         <v>34400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="3">
         <v>2600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,52 +4973,55 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-79500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-264600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-155600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-751700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-206900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-46200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-84800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O89" s="3">
         <v>-36000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,52 +5057,53 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-49700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-60100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-43200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" s="3">
         <v>-17200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,52 +5232,55 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>180600</v>
+      </c>
+      <c r="E94" s="3">
         <v>161100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>185400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-325500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>92900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>787700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-93100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>199900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>670300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O94" s="3">
         <v>251700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,52 +5550,55 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-24300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-32000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>584600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-16600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-66600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2411000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-788200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O100" s="3">
         <v>39400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5372,43 +5621,43 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5419,52 +5668,55 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E102" s="3">
         <v>57400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-102400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-513100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-74500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>564000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-121200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>143200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>38600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-202600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="3">
         <v>255200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>864400</v>
+      </c>
+      <c r="E8" s="3">
         <v>765000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>609000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>569900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>499700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>339300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>955700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1017100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>955600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>867300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>776000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>669600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>585000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>504900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>397200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>344600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>303500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>238900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>473700</v>
+      </c>
+      <c r="E9" s="3">
         <v>420500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>501000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>488400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>384800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>337100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>613700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>649900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>730500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>782100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>650100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>485600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>415100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>360600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>320500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>264000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>237300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>187000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>390700</v>
+      </c>
+      <c r="E10" s="3">
         <v>344500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>108000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>81500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>115000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>342000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>367200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>225100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>85200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>125900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>184000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>169900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>144300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>76700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>80600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>66200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>51900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>226700</v>
+      </c>
+      <c r="E12" s="3">
         <v>252000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>238200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>215200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>232100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>191400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>258700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>276600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>288300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>309800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>631000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>96100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>77200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>64400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>63200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>47700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>37200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>28200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,32 +1085,35 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>41500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>35300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>65100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1109,8 +1129,8 @@
       <c r="O14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1041300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1005100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1025400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1023300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>953100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>826800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1369800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1398900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1446500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1540200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1932900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>939600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>853600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>698500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>642600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>592000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>503100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>369500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-176900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-240100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-416400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-453400</v>
       </c>
       <c r="G18" s="3">
         <v>-453400</v>
       </c>
       <c r="H18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-487500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-414100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-381800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-490900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-672900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-270000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-268600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-193600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-245400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-247400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-199600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-130600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,115 +1380,119 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>19200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>23800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>29300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>29600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>15000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-203800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-378400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-412800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-404200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-430900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-359500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-333900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-431400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-612200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>-246100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>-232800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1465,32 +1502,35 @@
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E22" s="3">
         <v>12800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1503,8 +1543,8 @@
       <c r="N22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-251200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-425400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-460600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-458400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-481900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-396400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-358000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-461600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-643200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-249300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-248700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-178700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-233900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-239700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-194100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-126200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-44800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-251900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-427300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-458200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-459500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-437100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-398100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-356100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-463500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-644200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-248900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-249200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-178900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-234300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-239800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-194200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-126400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-251900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-427300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-458200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-459500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-437100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-398100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-356100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-463500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-644200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-248900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-249200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-178900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-234300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-239800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-194200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-126400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-12200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-19200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-23800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-29300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-29600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-251900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-427300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-458200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-459500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-437100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-398100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-356100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-463500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-644200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-248900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-249200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-178900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-234300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-239800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-194200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-126400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-251900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-427300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-458200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-459500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-437100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-398100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-356100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-463500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-644200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-248900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-249200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-178900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-234300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-239800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-194200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-126400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,44 +2487,45 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>728400</v>
+      </c>
+      <c r="E41" s="3">
         <v>484200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>312200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>319700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>424800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>841100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>597900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>358300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>543900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>417400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>329500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2448,8 +2535,8 @@
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2460,44 +2547,47 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1653900</v>
+      </c>
+      <c r="E42" s="3">
         <v>1761300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1925100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1931300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2028600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1934900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2072000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2491800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2572600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2892900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>705400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2507,8 +2597,8 @@
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,44 +2733,47 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E45" s="3">
         <v>357000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>343700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>343100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>299600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>320300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>474900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>397200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>426400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>367500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>345500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2684,8 +2783,8 @@
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2696,44 +2795,47 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2893300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2602600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2581000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2594100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2753100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3096200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3144800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3247400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3542800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3677800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1380400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2743,8 +2845,8 @@
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
+      <c r="R46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2764,10 +2869,10 @@
         <v>75300</v>
       </c>
       <c r="E47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="F47" s="3">
         <v>10700</v>
-      </c>
-      <c r="F47" s="3">
-        <v>10000</v>
       </c>
       <c r="G47" s="3">
         <v>10000</v>
@@ -2778,8 +2883,8 @@
       <c r="I47" s="3">
         <v>10000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>16</v>
+      <c r="J47" s="3">
+        <v>10000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>16</v>
@@ -2796,8 +2901,8 @@
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2814,44 +2919,47 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>557700</v>
+      </c>
+      <c r="E48" s="3">
         <v>570400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>569300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>589100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>619700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>650700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>668300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>629900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>571900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>485200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>425100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2861,8 +2969,8 @@
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2873,44 +2981,47 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>235400</v>
+      </c>
+      <c r="E49" s="3">
         <v>240300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>244000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>248500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>254500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>262500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>269300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>241600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>241000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>250500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>259200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2920,8 +3031,8 @@
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,44 +3167,47 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1062700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1082900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1140900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1237200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1331000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1195000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1479400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1572500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1379400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1291000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1176200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3097,8 +3217,8 @@
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,44 +3291,47 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4824300</v>
+      </c>
+      <c r="E54" s="3">
         <v>4571400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4545800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4679000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4968300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5214400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5571800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5691400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5735200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5704500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3240900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3215,8 +3341,8 @@
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
+      <c r="R54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,44 +3403,45 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E57" s="3">
         <v>77400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>84100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>540500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3320,8 +3451,8 @@
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3332,32 +3463,35 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E58" s="3">
         <v>57400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>53200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>56600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>63900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>72400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>80000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3373,8 +3507,8 @@
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3391,44 +3525,47 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2207000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2156700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2097800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1933800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1955200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1858900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1930700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2412500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2344600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2113100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1712700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3438,8 +3575,8 @@
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3450,44 +3587,47 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2399900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2291500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2220800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2074500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2045200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1979600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2551100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2451400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2380800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2125800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1752100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3497,8 +3637,8 @@
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
+      <c r="R60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
@@ -3509,32 +3649,35 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>678100</v>
+      </c>
+      <c r="E61" s="3">
         <v>670400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>656400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>650800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>633400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>638700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>102800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3568,44 +3711,47 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>262200</v>
+      </c>
+      <c r="E62" s="3">
         <v>244800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>259800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>277500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>286700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>299600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>310300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>385900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>364900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>301500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>268400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3615,8 +3761,8 @@
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,44 +3959,47 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3340200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3206600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3137000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3002800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2965200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2917900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2964300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2837300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2745600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2427300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2020500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3851,8 +4009,8 @@
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
+      <c r="R66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4037,11 +4205,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>5152000</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,44 +4293,47 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8051200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7979700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7727800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7300400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6842300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4169,8 +4343,8 @@
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,44 +4541,47 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1484100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1364800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1408900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1676200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2003100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2296600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2607500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2854100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2989500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3277100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4405,8 +4591,8 @@
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
+      <c r="R76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-251900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-427300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-458200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-459500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-437100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-398100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-356100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-463500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-644200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-248900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-249200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-178900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-234300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-239800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-194200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-126400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,55 +4820,56 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E83" s="3">
         <v>34600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83" s="3">
         <v>2600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,55 +5190,58 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-79500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-264600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-155600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-751700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-206900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-46200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-84800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P89" s="3">
         <v>-36000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,55 +5278,56 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-49700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-60100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91" s="3">
         <v>-17200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,55 +5462,58 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E94" s="3">
         <v>180600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>161100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>185400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-325500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>92900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>787700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-93100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>199900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>670300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P94" s="3">
         <v>251700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,55 +5796,58 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-24300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>584600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-16600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-66600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2411000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-788200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100" s="3">
         <v>39400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5612,55 +5858,58 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
+      <c r="O101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5671,55 +5920,58 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>243200</v>
+      </c>
+      <c r="E102" s="3">
         <v>133300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>57400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-102400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-513100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-74500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>564000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-121200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>143200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>38600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-202600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102" s="3">
         <v>255200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>969900</v>
+      </c>
+      <c r="E8" s="3">
         <v>864400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>765000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>609000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>569900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>499700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>339300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>955700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1017100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>955600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>867300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>776000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>669600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>585000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>504900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>397200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>344600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>303500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>238900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>636400</v>
+      </c>
+      <c r="E9" s="3">
         <v>473700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>420500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>501000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>488400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>384800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>337100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>613700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>649900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>730500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>782100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>650100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>485600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>415100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>360600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>320500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>264000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>237300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>187000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>333500</v>
+      </c>
+      <c r="E10" s="3">
         <v>390700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>344500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>108000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>81500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>115000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>342000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>367200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>225100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>85200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>125900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>184000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>169900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>144300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>76700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>80600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>66200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>51900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E12" s="3">
         <v>226700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>252000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>238200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>215200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>232100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>191400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>258700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>276600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>288300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>309800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>631000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>96100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>77200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>64400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>63200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>47700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>37200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>28200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,35 +1104,38 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
-        <v>41500</v>
+        <v>-119300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>21300</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>35300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>65100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1132,8 +1151,8 @@
       <c r="P14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1041300</v>
+        <v>1218900</v>
       </c>
       <c r="E17" s="3">
+        <v>922000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1005100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1025400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1023300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>953100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>826800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1369800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1398900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1446500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1540200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1932900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>939600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>853600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>698500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>642600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>592000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>503100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>369500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-176900</v>
+        <v>-249000</v>
       </c>
       <c r="E18" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-240100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-416400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-453400</v>
       </c>
       <c r="H18" s="3">
         <v>-453400</v>
       </c>
       <c r="I18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-487500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-414100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-381800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-490900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-672900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-270000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-268600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-193600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-245400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-247400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-199600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-130600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,121 +1413,125 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>125000</v>
+        <v>5600</v>
       </c>
       <c r="E20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>19200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>29300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>29600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>20600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-210200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-203800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-378400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-412800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-404200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-430900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-359500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-333900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-431400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-612200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-246100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>-232800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,26 +1553,26 @@
         <v>13100</v>
       </c>
       <c r="E22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F22" s="3">
         <v>12800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1546,8 +1585,8 @@
       <c r="O22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1567,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-256600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-64900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-251200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-425400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-460600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-458400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-481900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-396400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-358000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-461600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-643200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-249300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-248700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-178700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-233900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-239700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-194100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-126200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>6600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-44800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-258600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-71500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-251900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-427300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-458200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-459500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-437100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-398100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-356100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-463500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-644200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-248900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-249200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-178900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-234300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-239800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-194200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-126400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-258600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-71500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-251900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-427300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-458200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-459500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-437100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-398100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-356100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-463500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-644200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-248900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-249200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-178900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-234300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-239800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-194200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-126400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-125000</v>
+        <v>-5600</v>
       </c>
       <c r="E32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-19200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-29300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-29600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-20600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-258600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-71500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-251900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-427300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-458200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-459500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-437100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-398100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-356100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-463500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-644200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-248900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-249200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-178900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-234300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-239800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-194200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-126400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-258600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-71500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-251900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-427300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-458200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-459500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-437100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-398100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-356100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-463500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-644200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-248900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-249200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-178900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-234300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-239800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-194200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-126400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,47 +2573,48 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>457300</v>
+      </c>
+      <c r="E41" s="3">
         <v>728400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>484200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>312200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>319700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>424800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>841100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>597900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>358300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>543900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>417400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>329500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2538,8 +2624,8 @@
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2550,47 +2636,50 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1796500</v>
+      </c>
+      <c r="E42" s="3">
         <v>1653900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1761300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1925100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1931300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2028600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1934900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2072000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2491800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2572600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2892900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>705400</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2600,8 +2689,8 @@
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,47 +2831,50 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>522200</v>
+      </c>
+      <c r="E45" s="3">
         <v>511000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>357000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>343700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>343100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>299600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>320300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>474900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>397200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>426400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>367500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>345500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2786,8 +2884,8 @@
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2798,47 +2896,50 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2776100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2893300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2602600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2581000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2594100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2753100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3096200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3144800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3247400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3542800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3677800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1380400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2848,8 +2949,8 @@
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
+      <c r="S46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -2860,22 +2961,25 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75300</v>
+        <v>80400</v>
       </c>
       <c r="E47" s="3">
         <v>75300</v>
       </c>
       <c r="F47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="G47" s="3">
         <v>10700</v>
-      </c>
-      <c r="G47" s="3">
-        <v>10000</v>
       </c>
       <c r="H47" s="3">
         <v>10000</v>
@@ -2886,8 +2990,8 @@
       <c r="J47" s="3">
         <v>10000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
+      <c r="K47" s="3">
+        <v>10000</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>16</v>
@@ -2904,8 +3008,8 @@
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2922,47 +3026,50 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>521600</v>
+      </c>
+      <c r="E48" s="3">
         <v>557700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>570400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>569300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>589100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>619700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>650700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>668300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>629900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>571900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>485200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>425100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2972,8 +3079,8 @@
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2984,47 +3091,50 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>231300</v>
+      </c>
+      <c r="E49" s="3">
         <v>235400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>240300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>244000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>248500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>254500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>262500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>269300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>241600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>241000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>250500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>259200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3034,8 +3144,8 @@
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,47 +3286,50 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1164500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1062700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1082900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1140900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1237200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1331000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1195000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1479400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1572500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1379400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1291000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1176200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3220,8 +3339,8 @@
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,47 +3416,50 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4773900</v>
+      </c>
+      <c r="E54" s="3">
         <v>4824300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4571400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4545800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4679000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4968300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5214400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5571800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5691400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5735200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5704500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3240900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3344,8 +3469,8 @@
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
+      <c r="S54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,47 +3533,48 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E57" s="3">
         <v>127400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>77400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>69900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>84100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>540500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3454,8 +3584,8 @@
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3466,35 +3596,38 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E58" s="3">
         <v>65400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>57400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>53200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>56600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>63900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>72400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>80000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3510,8 +3643,8 @@
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3528,47 +3661,50 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2264200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2207000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2156700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2097800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1933800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1955200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1858900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1930700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2412500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2344600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2113100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1712700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3578,8 +3714,8 @@
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3590,47 +3726,50 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2463600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2399900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2291500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2220800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2074500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2045200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1979600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2551100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2451400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2380800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2125800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1752100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3640,8 +3779,8 @@
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
+      <c r="S60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
@@ -3652,35 +3791,38 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>669400</v>
+      </c>
+      <c r="E61" s="3">
         <v>678100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>670400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>656400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>650800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>633400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>638700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>102800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3714,47 +3856,50 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>246900</v>
+      </c>
+      <c r="E62" s="3">
         <v>262200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>244800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>259800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>277500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>286700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>299600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>310300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>385900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>364900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>301500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>268400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3764,8 +3909,8 @@
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,47 +4116,50 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3379900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3340200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3206600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3137000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3002800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2965200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2917900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2964300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2837300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2745600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2427300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2020500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4012,8 +4169,8 @@
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S66" s="3">
-        <v>0</v>
+      <c r="S66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4208,11 +4375,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>5152000</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,47 +4466,50 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8309800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8051200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7979700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7727800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7300400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6842300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4346,8 +4519,8 @@
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
+      <c r="S72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,47 +4726,50 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1394000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1484100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1364800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1408900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1676200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2003100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2296600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2607500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2854100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2989500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3277100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4594,8 +4779,8 @@
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
+      <c r="S76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T76" s="3">
         <v>0</v>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-258600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-71500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-251900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-427300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-458200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-459500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-437100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-398100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-356100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-463500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-644200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-248900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-249200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-178900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-234300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-239800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-194200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-126400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,58 +5018,59 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E83" s="3">
         <v>37100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2600</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,58 +5406,61 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E89" s="3">
         <v>41500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-79500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-264600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-155600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-751700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-206900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-46200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-84800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5255,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,58 +5498,59 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-49700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-60100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,58 +5691,61 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-305700</v>
+      </c>
+      <c r="E94" s="3">
         <v>231000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>180600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>161100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>185400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-325500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>92900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>787700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-93100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>199900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>670300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="3">
         <v>251700</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,58 +6041,61 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-29100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-24300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-32000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>584600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-66600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2411000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-788200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="3">
         <v>39400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -5861,58 +6106,61 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5923,58 +6171,61 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-341200</v>
+      </c>
+      <c r="E102" s="3">
         <v>243200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>133300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>57400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-102400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-513100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-74500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>564000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-121200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>143200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-202600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3">
         <v>255200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -5983,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>LYFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>875600</v>
+      </c>
+      <c r="E8" s="3">
         <v>969900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>864400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>765000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>609000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>569900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>499700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>339300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>955700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1017100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>955600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>867300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>776000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>669600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>585000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>504900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>397200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>344600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>303500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>238900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>636400</v>
+        <v>538900</v>
       </c>
       <c r="E9" s="3">
-        <v>473700</v>
+        <v>661000</v>
       </c>
       <c r="F9" s="3">
+        <v>501900</v>
+      </c>
+      <c r="G9" s="3">
         <v>420500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>501000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>488400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>384800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>337100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>613700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>649900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>730500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>782100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>650100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>485600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>415100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>360600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>320500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>264000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>237300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>187000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>333500</v>
+        <v>336700</v>
       </c>
       <c r="E10" s="3">
-        <v>390700</v>
+        <v>308900</v>
       </c>
       <c r="F10" s="3">
+        <v>362500</v>
+      </c>
+      <c r="G10" s="3">
         <v>344500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>108000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>81500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>115000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>342000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>367200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>225100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>85200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>125900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>184000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>169900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>144300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>76700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>80600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>66200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>51900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>192800</v>
+      </c>
+      <c r="E12" s="3">
         <v>195000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>226700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>252000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>238200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>215200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>232100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>191400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>258700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>276600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>288300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>309800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>631000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>96100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>77200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>64400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>63200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>47700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>37200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>28200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,38 +1124,41 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>600</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-119300</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3">
         <v>21300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>35300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>65100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1154,8 +1174,8 @@
       <c r="Q14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1218900</v>
+        <v>1074900</v>
       </c>
       <c r="E17" s="3">
-        <v>922000</v>
+        <v>1243600</v>
       </c>
       <c r="F17" s="3">
+        <v>1069400</v>
+      </c>
+      <c r="G17" s="3">
         <v>1005100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1025400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1023300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>953100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>826800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1369800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1398900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1446500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1540200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1932900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>939600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>853600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>698500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>642600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>592000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>503100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>369500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-249000</v>
+        <v>-199300</v>
       </c>
       <c r="E18" s="3">
-        <v>-57600</v>
+        <v>-273700</v>
       </c>
       <c r="F18" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-240100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-416400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-453400</v>
       </c>
       <c r="I18" s="3">
         <v>-453400</v>
       </c>
       <c r="J18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-487500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-414100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-381800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-490900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-672900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-270000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-268600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-193600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-245400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-247400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-199600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-130600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,127 +1447,131 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E20" s="3">
         <v>5600</v>
       </c>
-      <c r="E20" s="3">
-        <v>5800</v>
-      </c>
       <c r="F20" s="3">
+        <v>125000</v>
+      </c>
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>23800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>29300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>29600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>20600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-210200</v>
+        <v>-157800</v>
       </c>
       <c r="E21" s="3">
-        <v>-14800</v>
+        <v>-234800</v>
       </c>
       <c r="F21" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-203800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-378400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-412800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-404200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-430900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-359500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-333900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-431400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-612200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>-246100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>-232800</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1544,38 +1581,41 @@
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13100</v>
+        <v>4500</v>
       </c>
       <c r="E22" s="3">
         <v>13100</v>
       </c>
       <c r="F22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G22" s="3">
         <v>12800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1588,8 +1628,8 @@
       <c r="P22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-256600</v>
+        <v>-194100</v>
       </c>
       <c r="E23" s="3">
-        <v>-64900</v>
+        <v>-281200</v>
       </c>
       <c r="F23" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-251200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-425400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-460600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-458400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-481900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-396400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-358000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-461600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-643200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-249300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-248700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-178700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-233900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-239700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-194100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-126200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-44800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>200</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-258600</v>
+        <v>-196900</v>
       </c>
       <c r="E26" s="3">
-        <v>-71500</v>
+        <v>-283200</v>
       </c>
       <c r="F26" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-251900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-427300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-458200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-459500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-437100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-398100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-356100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-463500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-644200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-248900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-249200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-178900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-234300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-239800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-194200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-126400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-258600</v>
+        <v>-196900</v>
       </c>
       <c r="E27" s="3">
-        <v>-71500</v>
+        <v>-283200</v>
       </c>
       <c r="F27" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-251900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-427300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-458200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-459500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-437100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-398100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-356100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-463500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-644200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-248900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-249200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-178900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-234300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-239800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-194200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-126400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-5800</v>
-      </c>
       <c r="F32" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-23800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-29300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-29600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-258600</v>
+        <v>-196900</v>
       </c>
       <c r="E33" s="3">
-        <v>-71500</v>
+        <v>-283200</v>
       </c>
       <c r="F33" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-251900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-427300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-458200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-459500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-437100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-398100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-356100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-463500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-644200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-248900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-249200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-178900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-234300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-239800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-194200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-126400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-258600</v>
+        <v>-196900</v>
       </c>
       <c r="E35" s="3">
-        <v>-71500</v>
+        <v>-283200</v>
       </c>
       <c r="F35" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-251900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-427300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-458200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-459500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-437100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-398100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-356100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-463500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-644200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-248900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-249200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-178900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-234300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-239800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-194200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-126400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,50 +2660,51 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E41" s="3">
         <v>457300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>728400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>484200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>312200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>319700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>424800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>841100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>597900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>358300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>543900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>417400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>329500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2627,8 +2714,8 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="T41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2639,50 +2726,53 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2021700</v>
+      </c>
+      <c r="E42" s="3">
         <v>1796500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1653900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1761300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1925100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1931300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2028600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1934900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2072000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2491800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2572600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2892900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>705400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2692,8 +2782,8 @@
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,50 +2930,53 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>699000</v>
+      </c>
+      <c r="E45" s="3">
         <v>522200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>511000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>357000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>343700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>343100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>299600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>320300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>474900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>397200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>426400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>367500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>345500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2887,8 +2986,8 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2899,50 +2998,53 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2935600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2776100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2893300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2602600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2581000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2594100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2753100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3096200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3144800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3247400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3542800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3677800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1380400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2952,8 +3054,8 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
+      <c r="T46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -2964,25 +3066,28 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E47" s="3">
         <v>80400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>75300</v>
       </c>
       <c r="F47" s="3">
         <v>75300</v>
       </c>
       <c r="G47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="H47" s="3">
         <v>10700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>10000</v>
       </c>
       <c r="I47" s="3">
         <v>10000</v>
@@ -2993,8 +3098,8 @@
       <c r="K47" s="3">
         <v>10000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>16</v>
+      <c r="L47" s="3">
+        <v>10000</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>16</v>
@@ -3011,8 +3116,8 @@
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3029,50 +3134,53 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>526800</v>
+      </c>
+      <c r="E48" s="3">
         <v>521600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>557700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>570400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>569300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>589100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>619700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>650700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>668300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>629900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>571900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>485200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>425100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3082,8 +3190,8 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3094,50 +3202,53 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>228900</v>
+      </c>
+      <c r="E49" s="3">
         <v>231300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>235400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>240300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>244000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>248500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>254500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>262500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>269300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>241600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>241000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>250500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>259200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3147,8 +3258,8 @@
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,50 +3406,53 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1007000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1164500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1062700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1082900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1140900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1237200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1331000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1195000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1479400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1572500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1379400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1291000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1176200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3342,8 +3462,8 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,50 +3542,53 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4768500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4773900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4824300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4571400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4545800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4679000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4968300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5214400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5571800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5691400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5735200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5704500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3240900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3472,8 +3598,8 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
+      <c r="T54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,50 +3664,51 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E57" s="3">
         <v>129500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>127400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>77400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>69900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>84100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>26000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>48200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>540500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3587,8 +3718,8 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -3599,38 +3730,41 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>69800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>65400</v>
-      </c>
-      <c r="F58" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="3">
         <v>57400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>53200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>56600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>63900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>72400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>80000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3646,8 +3780,8 @@
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3664,50 +3798,53 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2264200</v>
+        <v>2413100</v>
       </c>
       <c r="E59" s="3">
-        <v>2207000</v>
+        <v>2386800</v>
       </c>
       <c r="F59" s="3">
+        <v>2300600</v>
+      </c>
+      <c r="G59" s="3">
         <v>2156700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2097800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1933800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1955200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1858900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1930700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2412500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2344600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2113100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1712700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3717,8 +3854,8 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3729,50 +3866,53 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2463600</v>
+        <v>2577200</v>
       </c>
       <c r="E60" s="3">
-        <v>2399900</v>
+        <v>2516400</v>
       </c>
       <c r="F60" s="3">
+        <v>2428100</v>
+      </c>
+      <c r="G60" s="3">
         <v>2291500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2220800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2074500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2045200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1979600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2551100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2451400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2380800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2125800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1752100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3782,8 +3922,8 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
+      <c r="T60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U60" s="3">
         <v>0</v>
@@ -3794,38 +3934,41 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>669400</v>
+        <v>801400</v>
       </c>
       <c r="E61" s="3">
-        <v>678100</v>
+        <v>655200</v>
       </c>
       <c r="F61" s="3">
+        <v>662500</v>
+      </c>
+      <c r="G61" s="3">
         <v>670400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>656400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>650800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>633400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>638700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>102800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3859,50 +4002,53 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>246900</v>
+        <v>231900</v>
       </c>
       <c r="E62" s="3">
-        <v>262200</v>
+        <v>261100</v>
       </c>
       <c r="F62" s="3">
+        <v>277900</v>
+      </c>
+      <c r="G62" s="3">
         <v>244800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>259800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>277500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>286700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>299600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>310300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>385900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>364900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>301500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>268400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3912,8 +4058,8 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,50 +4274,53 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3379900</v>
+        <v>3610500</v>
       </c>
       <c r="E66" s="3">
-        <v>3340200</v>
+        <v>3432700</v>
       </c>
       <c r="F66" s="3">
+        <v>3368400</v>
+      </c>
+      <c r="G66" s="3">
         <v>3206600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3137000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3002800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2965200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2917900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2964300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2837300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2745600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2427300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2020500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4172,8 +4330,8 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
+      <c r="T66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U66" s="3">
         <v>0</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4378,11 +4546,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>5152000</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,50 +4640,53 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8309800</v>
+        <v>-8553000</v>
       </c>
       <c r="E72" s="3">
-        <v>-8051200</v>
+        <v>-8362600</v>
       </c>
       <c r="F72" s="3">
+        <v>-8079400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-7979700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7727800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7300400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6842300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4522,8 +4696,8 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
+      <c r="T72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U72" s="3">
         <v>0</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,50 +4912,53 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1394000</v>
+        <v>1158000</v>
       </c>
       <c r="E76" s="3">
-        <v>1484100</v>
+        <v>1341200</v>
       </c>
       <c r="F76" s="3">
+        <v>1455900</v>
+      </c>
+      <c r="G76" s="3">
         <v>1364800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1408900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1676200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2003100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2296600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2607500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2854100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2989500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3277100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4782,8 +4968,8 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
+      <c r="T76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U76" s="3">
         <v>0</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-258600</v>
+        <v>-196900</v>
       </c>
       <c r="E81" s="3">
-        <v>-71500</v>
+        <v>-283200</v>
       </c>
       <c r="F81" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-251900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-427300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-458200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-459500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-437100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-398100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-356100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-463500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-644200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-248900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-249200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-178900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-234300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-239800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-194200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-126400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,61 +5217,62 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E83" s="3">
         <v>33300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>41700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="3">
         <v>2600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,61 +5623,64 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-152300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>41500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-79500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-264600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-155600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-751700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-206900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-46200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-84800</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R89" s="3">
         <v>-36000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="T89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,61 +5719,62 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-49700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-60100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="3">
         <v>-17200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,61 +5921,64 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-305700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>231000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>180600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>161100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>185400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-325500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>92900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>787700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-93100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>199900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>670300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R94" s="3">
         <v>251700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,61 +6287,64 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-29100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-24300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-32000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>584600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>18000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-66600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2411000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-788200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R100" s="3">
         <v>39400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6109,61 +6355,64 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -6174,61 +6423,64 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-248500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-341200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>243200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>133300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>57400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-102400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-513100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-74500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>564000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-121200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>143200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>38600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-202600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3">
         <v>255200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="T102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>LYFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>990700</v>
+      </c>
+      <c r="E8" s="3">
         <v>875600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>969900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>864400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>765000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>609000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>569900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>499700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>339300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>955700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1017100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>955600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>867300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>776000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>669600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>585000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>504900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>397200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>344600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>303500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>238900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>755700</v>
+      </c>
+      <c r="E9" s="3">
         <v>538900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>661000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>501900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>420500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>501000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>488400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>384800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>337100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>613700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>649900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>730500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>782100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>650100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>485600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>415100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>360600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>320500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>264000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>237300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>187000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E10" s="3">
         <v>336700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>308900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>362500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>344500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>108000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>81500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>115000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>342000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>367200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>225100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>85200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>125900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>184000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>169900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>144300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>76700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>80600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>66200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>51900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>201800</v>
+      </c>
+      <c r="E12" s="3">
         <v>192800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>195000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>226700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>252000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>238200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>215200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>232100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>191400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>258700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>276600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>288300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>309800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>631000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>96100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>77200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>64400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>63200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>47700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>37200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>28200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1141,27 +1161,27 @@
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3">
         <v>21300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>35300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>65100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1177,8 +1197,8 @@
       <c r="R14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1363900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1074900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1243600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1069400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1005100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1025400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1023300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>953100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>826800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1369800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1398900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1446500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1540200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1932900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>939600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>853600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>698500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>642600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>592000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>503100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>369500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-373200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-199300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-273700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-205000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-240100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-416400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-453400</v>
       </c>
       <c r="J18" s="3">
         <v>-453400</v>
       </c>
       <c r="K18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="L18" s="3">
         <v>-487500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-414100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-381800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-490900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-672900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-270000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-268600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-193600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-245400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-247400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-199600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-130600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,133 +1481,137 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>9700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>125000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>23800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>29300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>29600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>15000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-343100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-157800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-234800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-42900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-203800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-378400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-412800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-404200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-430900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-359500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-333900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-431400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-612200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>-246100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>-232800</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1584,41 +1621,44 @@
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
         <v>4500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>13100</v>
       </c>
       <c r="F22" s="3">
         <v>13100</v>
       </c>
       <c r="G22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="H22" s="3">
         <v>12800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1631,8 +1671,8 @@
       <c r="Q22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-377200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-194100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-281200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-93100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-251200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-425400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-460600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-458400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-481900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-396400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-358000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-461600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-643200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-249300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-248700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-178700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-233900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-239700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-194100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-126200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-44800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>200</v>
       </c>
       <c r="W24" s="3">
         <v>200</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-377200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-196900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-283200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-99700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-251900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-427300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-458200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-459500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-437100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-398100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-356100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-463500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-644200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-248900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-249200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-178900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-234300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-239800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-194200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-126400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-377200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-196900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-283200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-99700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-251900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-427300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-458200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-459500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-437100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-398100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-356100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-463500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-644200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-248900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-249200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-178900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-234300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-239800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-194200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-126400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-125000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-23800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-29300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-29600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-15000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-377200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-196900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-283200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-99700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-251900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-427300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-458200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-459500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-437100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-398100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-356100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-463500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-644200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-248900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-249200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-178900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-234300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-239800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-194200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-126400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-377200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-196900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-283200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-99700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-251900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-427300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-458200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-459500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-437100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-398100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-356100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-463500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-644200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-248900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-249200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-178900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-234300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-239800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-194200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-126400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,53 +2747,54 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>239300</v>
+      </c>
+      <c r="E41" s="3">
         <v>214900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>457300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>728400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>484200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>312200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>319700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>424800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>841100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>597900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>358300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>543900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>417400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>329500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2717,8 +2804,8 @@
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2729,53 +2816,56 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1567700</v>
+      </c>
+      <c r="E42" s="3">
         <v>2021700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1796500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1653900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1761300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1925100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1931300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2028600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1934900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2072000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2491800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2572600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2892900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>705400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2785,8 +2875,8 @@
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,53 +3029,56 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>652400</v>
+      </c>
+      <c r="E45" s="3">
         <v>699000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>522200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>511000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>357000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>343700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>343100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>299600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>320300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>474900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>397200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>426400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>367500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>345500</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2989,8 +3088,8 @@
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3001,53 +3100,56 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2459500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2935600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2776100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2893300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2602600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2581000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2594100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2753100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3096200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3144800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3247400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3542800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3677800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1380400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3057,8 +3159,8 @@
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
+      <c r="U46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
@@ -3069,28 +3171,31 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E47" s="3">
         <v>70200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>80400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>75300</v>
       </c>
       <c r="G47" s="3">
         <v>75300</v>
       </c>
       <c r="H47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="I47" s="3">
         <v>10700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>10000</v>
       </c>
       <c r="J47" s="3">
         <v>10000</v>
@@ -3101,8 +3206,8 @@
       <c r="L47" s="3">
         <v>10000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
+      <c r="M47" s="3">
+        <v>10000</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>16</v>
@@ -3119,8 +3224,8 @@
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3137,53 +3242,56 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>582800</v>
+      </c>
+      <c r="E48" s="3">
         <v>526800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>521600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>557700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>570400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>569300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>589100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>619700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>650700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>668300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>629900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>571900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>485200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>425100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3193,8 +3301,8 @@
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3205,53 +3313,56 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>351400</v>
+      </c>
+      <c r="E49" s="3">
         <v>228900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>231300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>235400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>240300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>244000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>248500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>254500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>262500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>269300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>241600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>241000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>250500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>259200</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3261,8 +3372,8 @@
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,53 +3526,56 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1208200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1007000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1164500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1062700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1082900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1140900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1237200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1331000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1195000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1479400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1572500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1379400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1291000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1176200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3465,8 +3585,8 @@
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,53 +3668,56 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4757500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4768500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4773900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4824300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4571400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4545800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4679000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4968300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5214400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5571800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5691400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5735200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5704500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3240900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3601,8 +3727,8 @@
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
+      <c r="U54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,53 +3795,54 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E57" s="3">
         <v>95600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>129500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>127400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>77400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>69900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>84100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>26000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>540500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3721,8 +3852,8 @@
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
+      <c r="U57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -3733,41 +3864,44 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E58" s="3">
         <v>68500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="3">
         <v>57400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>53200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>56600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>63900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>72400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>80000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3783,8 +3917,8 @@
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3801,53 +3935,56 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2564800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2413100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2386800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2156700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2097800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1933800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1955200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1858900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1930700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2412500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2344600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2113100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1712700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3857,8 +3994,8 @@
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -3869,53 +4006,56 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2731900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2577200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2516400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2428100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2291500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2220800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2074500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2045200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1979600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2551100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2451400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2380800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2125800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1752100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3925,8 +4065,8 @@
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
+      <c r="U60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V60" s="3">
         <v>0</v>
@@ -3937,41 +4077,44 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>826000</v>
+      </c>
+      <c r="E61" s="3">
         <v>801400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>655200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>662500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>670400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>656400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>650800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>633400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>638700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>102800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4005,53 +4148,56 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>232400</v>
+      </c>
+      <c r="E62" s="3">
         <v>231900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>261100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>277900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>244800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>259800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>277500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>286700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>299600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>310300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>385900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>364900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>301500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>268400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4061,8 +4207,8 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,53 +4432,56 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3790300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3610500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3432700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3368400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3206600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3137000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3002800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2965200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2917900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2964300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2837300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2745600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2427300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2020500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4333,8 +4491,8 @@
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U66" s="3">
-        <v>0</v>
+      <c r="U66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V66" s="3">
         <v>0</v>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4549,11 +4717,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>5152000</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,53 +4814,56 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8930300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8553000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8362600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8079400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7979700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7727800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7300400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6842300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4699,8 +4873,8 @@
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
+      <c r="U72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V72" s="3">
         <v>0</v>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,53 +5098,56 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>967300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1158000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1341200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1455900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1364800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1408900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1676200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2003100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2296600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2607500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2854100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2989500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3277100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4971,8 +5157,8 @@
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
+      <c r="U76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-377200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-196900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-283200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-99700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-251900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-427300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-458200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-459500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-437100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-398100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-356100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-463500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-644200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-248900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-249200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-178900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-234300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-239800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-194200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-126400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,64 +5416,65 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E83" s="3">
         <v>31800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S83" s="3">
         <v>2600</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,64 +5840,67 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-152300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>41500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-37600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-79500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-264600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-155600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-751700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-206900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-46200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-84800</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S89" s="3">
         <v>-36000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
+      <c r="U89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,64 +5940,65 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-49700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-60100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="3">
         <v>-17200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,64 +6151,67 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-74200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-305700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>231000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>180600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>161100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>185400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-325500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>92900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>787700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-93100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>199900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>670300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S94" s="3">
         <v>251700</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,64 +6533,67 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-29100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-24300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-32000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>584600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>18000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-66600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2411000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-788200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S100" s="3">
         <v>39400</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6358,64 +6604,67 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6426,64 +6675,67 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-248500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-341200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>243200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>133300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>57400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-102400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-513100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-74500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>564000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-121200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>143200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>38600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-202600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" s="3">
         <v>255200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
+      <c r="U102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1053800</v>
+      </c>
+      <c r="E8" s="3">
         <v>990700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>875600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>969900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>864400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>765000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>609000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>569900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>499700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>339300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>955700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1017100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>955600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>867300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>776000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>669600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>585000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>504900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>397200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>344600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>303500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>238900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>689900</v>
+      </c>
+      <c r="E9" s="3">
         <v>755700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>538900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>661000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>501900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>420500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>501000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>488400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>384800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>337100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>613700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>649900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>730500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>782100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>650100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>485600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>415100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>360600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>320500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>264000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>237300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>187000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>363900</v>
+      </c>
+      <c r="E10" s="3">
         <v>235000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>336700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>308900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>362500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>344500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>108000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>81500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>115000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>342000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>367200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>225100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>85200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>125900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>184000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>169900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>144300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>76700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>80600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>66200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>51900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>227700</v>
+      </c>
+      <c r="E12" s="3">
         <v>201800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>192800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>195000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>226700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>252000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>238200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>215200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>232100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>191400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>258700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>276600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>288300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>309800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>631000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>96100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>77200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>64400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>63200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>47700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>37200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>28200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,13 +1164,16 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
+      <c r="D14" s="3">
+        <v>135700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
@@ -1164,27 +1184,27 @@
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3">
         <v>21300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>35300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>65100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1200,8 +1220,8 @@
       <c r="S14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1479900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1363900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1074900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1243600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1069400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1005100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1025400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1023300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>953100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>826800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1369800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1398900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1446500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1540200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1932900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>939600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>853600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>698500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>642600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>592000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>503100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>369500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-426100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-373200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-199300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-273700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-205000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-240100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-416400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-453400</v>
       </c>
       <c r="K18" s="3">
         <v>-453400</v>
       </c>
       <c r="L18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="M18" s="3">
         <v>-487500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-414100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-381800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-490900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-672900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-270000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-268600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-193600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-245400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-247400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-199600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-130600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,139 +1515,143 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>125000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>23800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>29300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>29600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>15000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-380700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-343100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-157800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-234800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-42900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-203800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-378400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-412800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-404200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-430900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-359500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-333900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-431400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-612200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>-246100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>-232800</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1633,35 +1673,35 @@
         <v>5000</v>
       </c>
       <c r="E22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F22" s="3">
         <v>4500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>13100</v>
       </c>
       <c r="G22" s="3">
         <v>13100</v>
       </c>
       <c r="H22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I22" s="3">
         <v>12800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1674,8 +1714,8 @@
       <c r="R22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1695,150 +1735,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-421600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-377200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-194100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-281200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-93100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-251200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-425400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-460600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-458400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-481900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-396400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-358000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-461600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-643200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-249300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-248700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-178700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-233900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-239700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-194100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-126200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-44800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
-      </c>
-      <c r="W24" s="3">
-        <v>200</v>
       </c>
       <c r="X24" s="3">
         <v>200</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-422200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-377200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-196900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-283200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-99700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-251900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-427300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-458200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-459500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-437100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-398100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-356100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-463500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-644200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-248900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-249200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-178900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-234300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-239800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-194200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-126400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-422200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-377200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-196900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-283200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-99700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-251900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-427300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-458200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-459500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-437100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-398100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-356100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-463500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-644200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-248900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-249200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-178900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-234300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-239800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-194200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-126400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-125000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-23800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-29300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-15000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-422200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-377200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-196900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-283200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-99700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-251900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-427300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-458200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-459500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-437100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-398100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-356100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-463500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-644200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-248900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-249200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-178900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-234300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-239800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-194200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-126400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-422200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-377200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-196900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-283200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-99700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-251900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-427300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-458200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-459500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-437100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-398100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-356100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-463500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-644200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-248900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-249200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-178900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-234300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-239800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-194200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-126400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,56 +2834,57 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E41" s="3">
         <v>239300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>214900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>457300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>728400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>484200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>312200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>319700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>424800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>841100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>597900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>358300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>543900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>417400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>329500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2807,8 +2894,8 @@
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="V41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2819,56 +2906,59 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1639700</v>
+      </c>
+      <c r="E42" s="3">
         <v>1567700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2021700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1796500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1653900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1761300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1925100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1931300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2028600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1934900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2072000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2491800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2572600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2892900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>705400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2878,8 +2968,8 @@
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,56 +3128,59 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>689300</v>
+      </c>
+      <c r="E45" s="3">
         <v>652400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>699000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>522200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>511000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>357000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>343700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>343100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>299600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>320300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>474900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>397200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>426400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>367500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>345500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3091,8 +3190,8 @@
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3103,56 +3202,59 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2472700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2459500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2935600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2776100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2893300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2602600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2581000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2594100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2753100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3096200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3144800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3247400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3542800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3677800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1380400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3162,8 +3264,8 @@
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
+      <c r="V46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3174,31 +3276,34 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E47" s="3">
         <v>155700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>70200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>80400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>75300</v>
       </c>
       <c r="H47" s="3">
         <v>75300</v>
       </c>
       <c r="I47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="J47" s="3">
         <v>10700</v>
-      </c>
-      <c r="J47" s="3">
-        <v>10000</v>
       </c>
       <c r="K47" s="3">
         <v>10000</v>
@@ -3209,8 +3314,8 @@
       <c r="M47" s="3">
         <v>10000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
+      <c r="N47" s="3">
+        <v>10000</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>16</v>
@@ -3227,8 +3332,8 @@
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3245,56 +3350,59 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>563500</v>
+      </c>
+      <c r="E48" s="3">
         <v>582800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>526800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>521600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>557700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>570400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>569300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>589100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>619700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>650700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>668300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>629900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>571900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>485200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>425100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3304,8 +3412,8 @@
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3316,56 +3424,59 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>342700</v>
+      </c>
+      <c r="E49" s="3">
         <v>351400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>228900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>231300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>235400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>240300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>244000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>248500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>254500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>262500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>269300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>241600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>241000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>250500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>259200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3375,8 +3486,8 @@
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,56 +3646,59 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1194900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1208200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1007000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1164500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1062700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1082900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1140900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1237200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1331000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1195000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1479400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1572500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1379400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1291000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1176200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3588,8 +3708,8 @@
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,56 +3794,59 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4600200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4757500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4768500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4773900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4824300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4571400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4545800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4679000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4968300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5214400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5571800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5691400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5735200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5704500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3240900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3730,8 +3856,8 @@
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
+      <c r="V54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,56 +3926,57 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E57" s="3">
         <v>100000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>95600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>129500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>127400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>77400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>69900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>84100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>540500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3855,8 +3986,8 @@
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
+      <c r="V57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -3867,44 +3998,47 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E58" s="3">
         <v>67100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>68500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="3">
         <v>57400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>53200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>56600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>63900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>72400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>80000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3920,8 +4054,8 @@
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3938,56 +4072,59 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2644500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2564800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2413100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2386800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2156700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2097800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1933800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1955200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1858900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1930700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2412500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2344600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2113100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1712700</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3997,8 +4134,8 @@
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4009,56 +4146,59 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2784800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2731900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2577200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2516400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2428100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2291500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2220800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2074500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2045200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1979600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2551100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2451400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2380800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2125800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1752100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4068,8 +4208,8 @@
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
+      <c r="V60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
@@ -4080,44 +4220,47 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>830600</v>
+      </c>
+      <c r="E61" s="3">
         <v>826000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>801400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>655200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>662500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>670400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>656400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>650800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>633400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>638700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>102800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4151,56 +4294,59 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E62" s="3">
         <v>232400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>231900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>261100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>277900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>244800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>259800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>277500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>286700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>299600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>310300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>385900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>364900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>301500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>268400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4210,8 +4356,8 @@
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,56 +4590,59 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3834700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3790300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3610500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3432700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3368400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3206600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3137000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3002800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2965200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2917900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2964300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2837300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2745600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2427300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2020500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4494,8 +4652,8 @@
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
+      <c r="V66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W66" s="3">
         <v>0</v>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4720,11 +4888,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>5152000</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,56 +4988,59 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9352500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8930300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8553000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8362600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8079400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7979700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7727800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7300400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6842300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4876,8 +5050,8 @@
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
+      <c r="V72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W72" s="3">
         <v>0</v>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,56 +5284,59 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>765500</v>
+      </c>
+      <c r="E76" s="3">
         <v>967300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1158000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1341200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1455900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1364800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1408900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1676200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2003100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2296600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2607500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2854100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2989500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3277100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5160,8 +5346,8 @@
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
+      <c r="V76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W76" s="3">
         <v>0</v>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-422200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-377200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-196900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-283200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-99700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-251900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-427300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-458200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-459500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-437100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-398100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-356100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-463500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-644200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-248900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-249200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-178900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-234300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-239800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-194200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-126400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,67 +5615,68 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E83" s="3">
         <v>29100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T83" s="3">
         <v>2600</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,67 +6057,70 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-152300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>41500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-37600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-79500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-264600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-155600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-751700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-206900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-46200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-84800</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T89" s="3">
         <v>-36000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
+      <c r="V89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -5914,8 +6131,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,67 +6161,68 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-49700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-60100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T91" s="3">
         <v>-17200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,67 +6381,70 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E94" s="3">
         <v>97400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-74200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-305700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>231000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>180600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>161100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>185400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-325500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>92900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>787700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-93100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>199900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>670300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T94" s="3">
         <v>251700</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,67 +6779,70 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-29100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-24300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-23500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>584600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>18000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-66600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2411000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-788200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T100" s="3">
         <v>39400</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6607,67 +6853,70 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6678,67 +6927,70 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E102" s="3">
         <v>60400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-248500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-341200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>243200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>133300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>57400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-102400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-513100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-74500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>564000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-121200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>143200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>38600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-202600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="3">
         <v>255200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
+      <c r="V102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1175000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1053800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>990700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>875600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>969900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>864400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>765000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>609000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>569900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>499700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>339300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>955700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1017100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>955600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>867300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>776000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>669600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>585000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>504900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>397200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>344600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>303500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>238900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>895100</v>
+      </c>
+      <c r="E9" s="3">
         <v>689900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>755700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>538900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>661000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>501900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>420500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>501000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>488400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>384800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>337100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>613700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>649900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>730500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>782100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>650100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>485600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>415100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>360600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>320500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>264000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>237300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>187000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>279900</v>
+      </c>
+      <c r="E10" s="3">
         <v>363900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>235000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>336700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>308900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>362500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>344500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>108000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>81500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>115000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>342000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>367200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>225100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>85200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>125900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>184000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>169900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>144300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>76700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>80600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>66200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>51900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>234600</v>
+      </c>
+      <c r="E12" s="3">
         <v>227700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>201800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>192800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>195000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>226700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>252000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>238200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>215200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>232100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>191400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>258700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>276600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>288300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>309800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>631000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>96100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>77200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>64400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>63200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>47700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>37200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>28200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,17 +1183,20 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>135700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1187,27 +1206,27 @@
       <c r="H14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3">
         <v>21300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>35300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>65100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1223,8 +1242,8 @@
       <c r="T14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1771000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1479900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1363900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1074900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1243600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1069400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1005100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1025400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1023300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>953100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>826800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1369800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1398900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1446500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1540200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1932900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>939600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>853600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>698500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>642600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>592000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>503100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>369500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-596000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-426100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-373200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-199300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-273700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-205000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-240100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-416400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-453400</v>
       </c>
       <c r="L18" s="3">
         <v>-453400</v>
       </c>
       <c r="M18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-487500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-414100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-381800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-490900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-672900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-270000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-268600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-193600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-245400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-247400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-199600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-130600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1516,145 +1548,149 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E20" s="3">
         <v>9600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>125000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>23800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>29300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>29600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>20600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>20000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>15000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>11400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-522600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-380700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-343100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-157800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-234800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-42900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-203800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-378400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-412800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-404200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-430900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-359500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-333900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-431400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-612200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>-246100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>-232800</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1664,47 +1700,50 @@
       <c r="Z21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E22" s="3">
         <v>5000</v>
       </c>
       <c r="F22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="3">
         <v>4500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>13100</v>
       </c>
       <c r="H22" s="3">
         <v>13100</v>
       </c>
       <c r="I22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J22" s="3">
         <v>12800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1717,8 +1756,8 @@
       <c r="S22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1738,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-585800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-421600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-377200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-194100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-281200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-93100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-251200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-425400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-460600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-458400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-481900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-396400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-358000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-461600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-643200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-249300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-248700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-178700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-233900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-239700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-194100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-126200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-44800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
-      </c>
-      <c r="X24" s="3">
-        <v>200</v>
       </c>
       <c r="Y24" s="3">
         <v>200</v>
       </c>
       <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-588100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-422200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-377200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-196900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-283200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-99700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-251900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-427300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-458200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-459500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-437100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-398100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-356100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-463500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-644200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-248900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-249200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-178900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-234300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-239800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-194200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-126400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-588100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-422200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-377200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-196900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-283200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-99700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-251900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-427300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-458200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-459500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-437100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-398100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-356100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-463500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-644200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-248900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-249200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-178900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-234300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-239800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-194200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-126400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-125000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-23800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-29600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-20600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-20000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-15000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-11400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-588100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-422200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-377200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-196900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-283200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-99700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-251900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-427300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-458200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-459500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-437100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-398100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-356100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-463500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-644200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-248900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-249200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-178900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-234300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-239800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-194200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-126400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-588100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-422200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-377200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-196900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-283200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-99700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-251900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-427300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-458200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-459500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-437100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-398100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-356100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-463500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-644200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-248900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-249200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-178900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-234300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-239800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-194200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-126400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,59 +2920,60 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>281100</v>
+      </c>
+      <c r="E41" s="3">
         <v>143700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>239300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>214900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>457300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>728400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>484200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>312200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>319700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>424800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>841100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>597900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>358300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>543900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>417400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>329500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2897,8 +2983,8 @@
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
+      <c r="W41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -2909,59 +2995,62 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1515700</v>
+      </c>
+      <c r="E42" s="3">
         <v>1639700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1567700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2021700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1796500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1653900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1761300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1925100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1931300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2028600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1934900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2072000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2491800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2572600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2892900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>705400</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2971,8 +3060,8 @@
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -2983,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,59 +3226,62 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>786100</v>
+      </c>
+      <c r="E45" s="3">
         <v>689300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>652400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>699000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>522200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>511000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>357000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>343700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>343100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>299600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>320300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>474900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>397200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>426400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>367500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>345500</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3193,8 +3291,8 @@
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3205,59 +3303,62 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2582900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2472700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2459500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2935600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2776100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2893300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2602600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2581000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2594100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2753100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3096200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3144800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3247400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3542800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3677800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1380400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3267,8 +3368,8 @@
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
+      <c r="W46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X46" s="3">
         <v>0</v>
@@ -3279,34 +3380,37 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E47" s="3">
         <v>26300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>155700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>70200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>80400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>75300</v>
       </c>
       <c r="I47" s="3">
         <v>75300</v>
       </c>
       <c r="J47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K47" s="3">
         <v>10700</v>
-      </c>
-      <c r="K47" s="3">
-        <v>10000</v>
       </c>
       <c r="L47" s="3">
         <v>10000</v>
@@ -3317,8 +3421,8 @@
       <c r="N47" s="3">
         <v>10000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>16</v>
+      <c r="O47" s="3">
+        <v>10000</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>16</v>
@@ -3335,8 +3439,8 @@
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3353,59 +3457,62 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>448600</v>
+      </c>
+      <c r="E48" s="3">
         <v>563500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>582800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>526800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>521600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>557700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>570400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>569300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>589100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>619700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>650700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>668300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>629900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>571900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>485200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>425100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3415,8 +3522,8 @@
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3427,59 +3534,62 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>337800</v>
+      </c>
+      <c r="E49" s="3">
         <v>342700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>351400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>228900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>231300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>235400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>240300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>244000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>248500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>254500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>262500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>269300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>241600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>241000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>250500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>259200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3489,8 +3599,8 @@
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,59 +3765,62 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1160800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1194900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1208200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1007000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1164500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1062700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1082900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1140900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1237200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1331000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1195000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1479400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1572500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1379400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1291000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1176200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3711,8 +3830,8 @@
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,59 +3919,62 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4556400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4600200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4757500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4768500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4773900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4824300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4571400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4545800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4679000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4968300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5214400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5571800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5691400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5735200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5704500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3240900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3859,8 +3984,8 @@
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
+      <c r="W54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X54" s="3">
         <v>0</v>
@@ -3871,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,59 +4056,60 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E57" s="3">
         <v>90100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>95600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>129500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>127400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>77400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>69900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>84100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>48200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>540500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39400</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3989,8 +4119,8 @@
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
+      <c r="W57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
@@ -4001,47 +4131,50 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E58" s="3">
         <v>50200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>67100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>68500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="3">
         <v>57400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>53200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>56600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>63900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>72400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>80000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4057,8 +4190,8 @@
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4075,59 +4208,62 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2973400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2644500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2564800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2413100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2386800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2156700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2097800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1933800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1955200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1858900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1930700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2412500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2344600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2113100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1712700</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4137,8 +4273,8 @@
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4149,59 +4285,62 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3132600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2784800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2731900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2577200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2516400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2428100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2291500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2220800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2074500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2045200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1979600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2551100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2451400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2380800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2125800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1752100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4211,8 +4350,8 @@
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W60" s="3">
-        <v>0</v>
+      <c r="W60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X60" s="3">
         <v>0</v>
@@ -4223,47 +4362,50 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>823100</v>
+      </c>
+      <c r="E61" s="3">
         <v>830600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>826000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>801400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>655200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>662500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>670400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>656400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>650800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>633400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>638700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>102800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4297,59 +4439,62 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>212100</v>
+      </c>
+      <c r="E62" s="3">
         <v>219200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>232400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>231900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>261100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>277900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>244800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>259800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>277500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>286700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>299600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>310300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>385900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>364900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>301500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>268400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4359,8 +4504,8 @@
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,59 +4747,62 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4167800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3834700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3790300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3610500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3432700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3368400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3206600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3137000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3002800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2965200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2917900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2964300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2837300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2745600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2427300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2020500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4655,8 +4812,8 @@
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W66" s="3">
-        <v>0</v>
+      <c r="W66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X66" s="3">
         <v>0</v>
@@ -4667,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4891,11 +5058,11 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>5152000</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,59 +5161,62 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9940600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9352500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8930300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8553000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8362600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8079400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7979700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7727800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7300400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6842300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5053,8 +5226,8 @@
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W72" s="3">
-        <v>0</v>
+      <c r="W72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X72" s="3">
         <v>0</v>
@@ -5065,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,59 +5469,62 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>388700</v>
+      </c>
+      <c r="E76" s="3">
         <v>765500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>967300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1158000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1341200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1455900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1364800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1408900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1676200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2003100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2296600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2607500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2854100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2989500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3277100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5349,8 +5534,8 @@
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
+      <c r="W76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X76" s="3">
         <v>0</v>
@@ -5361,8 +5546,11 @@
       <c r="Z76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-588100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-422200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-377200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-196900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-283200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-99700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-251900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-427300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-458200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-459500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-437100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-398100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-356100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-463500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-644200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-248900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-249200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-178900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-234300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-239800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-194200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-126400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,70 +5813,71 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E83" s="3">
         <v>35900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>29100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>41700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>24100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U83" s="3">
         <v>2600</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5690,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,70 +6273,73 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-152300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>41500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-37600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-79500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-264600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-155600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-751700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-206900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-46200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-84800</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U89" s="3">
         <v>-36000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
+      <c r="W89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -6134,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,70 +6381,71 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-49700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-43200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U91" s="3">
         <v>-17200</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6236,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,70 +6610,73 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>133500</v>
+      </c>
+      <c r="E94" s="3">
         <v>29400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>97400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-74200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-305700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>231000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>180600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>161100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>185400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-325500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>92900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>787700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-93100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>199900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>670300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U94" s="3">
         <v>251700</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6458,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,70 +7024,73 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-33300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-22000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-29100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-24300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-32000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>584600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>18000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-66600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2411000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-788200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U100" s="3">
         <v>39400</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
+      <c r="W100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -6856,70 +7101,73 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>16</v>
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -6930,70 +7178,73 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-30700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>60400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-248500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-341200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>243200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>133300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>57400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-102400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-513100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-74500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>564000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-121200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>143200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>38600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-202600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3">
         <v>255200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
+      <c r="W102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
@@ -7002,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>LYFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1175000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1053800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>990700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>875600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>969900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>864400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>765000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>609000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>569900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>499700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>339300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>955700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1017100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>955600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>867300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>776000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>669600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>585000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>504900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>397200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>344600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>303500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>238900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>647900</v>
+      </c>
+      <c r="E9" s="3">
         <v>895100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>689900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>755700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>538900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>661000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>501900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>420500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>501000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>488400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>384800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>337100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>613700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>649900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>730500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>782100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>650100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>485600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>415100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>360600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>320500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>264000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>237300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>187000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>352600</v>
+      </c>
+      <c r="E10" s="3">
         <v>279900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>363900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>235000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>336700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>308900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>362500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>344500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>108000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>81500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>115000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>342000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>367200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>225100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>85200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>125900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>184000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>169900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>144300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>76700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>80600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>66200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>51900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>196900</v>
+      </c>
+      <c r="E12" s="3">
         <v>234600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>227700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>201800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>192800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>195000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>226700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>252000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>238200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>215200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>232100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>191400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>258700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>276600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>288300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>309800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>631000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>96100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>77200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>64400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>63200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>47700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>37200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>28200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,20 +1203,23 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>135700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1209,27 +1229,27 @@
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="3">
         <v>21300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>35300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>65100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1245,8 +1265,8 @@
       <c r="U14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1217300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1771000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1479900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1363900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1074900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1243600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1069400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1005100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1025400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1023300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>953100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>826800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1369800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1398900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1446500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1540200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1932900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>939600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>853600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>698500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>642600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>592000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>503100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>369500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-216800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-596000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-426100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-373200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-199300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-273700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-205000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-240100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-416400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-453400</v>
       </c>
       <c r="M18" s="3">
         <v>-453400</v>
       </c>
       <c r="N18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="O18" s="3">
         <v>-487500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-414100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-381800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-490900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-672900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-270000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-268600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-193600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-245400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-247400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-199600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-130600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,151 +1582,155 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E20" s="3">
         <v>15400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>125000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>23800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>29300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>29600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>20600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>20000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>15000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>11400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>7800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>4400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-152300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-522600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-380700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-343100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-157800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-234800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-42900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-203800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-378400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-412800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-404200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-430900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-359500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-333900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-431400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-612200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>-246100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3">
         <v>-232800</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1703,50 +1740,53 @@
       <c r="AA21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E22" s="3">
         <v>5200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5000</v>
       </c>
       <c r="F22" s="3">
         <v>5000</v>
       </c>
       <c r="G22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H22" s="3">
         <v>4500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>13100</v>
       </c>
       <c r="I22" s="3">
         <v>13100</v>
       </c>
       <c r="J22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K22" s="3">
         <v>12800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1759,8 +1799,8 @@
       <c r="T22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-585800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-421600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-377200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-194100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-281200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-93100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-251200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-425400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-460600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-458400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-481900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-396400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-358000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-461600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-643200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-249300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-248700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-178700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-233900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-239700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-194100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-126200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-44800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>200</v>
       </c>
       <c r="Z24" s="3">
         <v>200</v>
       </c>
       <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-588100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-422200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-377200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-196900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-283200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-99700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-251900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-427300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-458200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-459500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-437100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-398100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-356100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-463500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-644200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-248900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-249200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-178900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-234300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-239800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-194200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-126400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-588100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-422200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-377200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-196900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-283200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-99700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-251900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-427300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-458200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-459500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-437100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-398100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-356100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-463500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-644200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-248900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-249200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-178900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-234300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-239800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-194200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-126400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-125000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-29300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-29600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-20600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-20000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-15000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-11400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-588100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-422200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-377200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-196900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-283200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-99700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-251900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-427300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-458200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-459500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-437100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-398100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-356100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-463500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-644200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-248900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-249200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-178900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-234300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-239800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-194200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-126400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-588100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-422200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-377200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-196900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-283200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-99700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-251900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-427300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-458200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-459500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-437100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-398100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-356100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-463500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-644200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-248900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-249200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-178900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-234300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-239800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-194200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-126400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,62 +3007,63 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>509600</v>
+      </c>
+      <c r="E41" s="3">
         <v>281100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>143700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>239300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>214900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>457300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>728400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>484200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>312200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>319700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>424800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>841100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>597900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>358300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>543900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>417400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>329500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2986,8 +3073,8 @@
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
+      <c r="X41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -2998,62 +3085,65 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1245200</v>
+      </c>
+      <c r="E42" s="3">
         <v>1515700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1639700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1567700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2021700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1796500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1653900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1761300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1925100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1931300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2028600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1934900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2072000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2491800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2572600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2892900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>705400</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3063,8 +3153,8 @@
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,62 +3325,65 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>792700</v>
+      </c>
+      <c r="E45" s="3">
         <v>786100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>689300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>652400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>699000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>522200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>511000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>357000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>343700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>343100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>299600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>320300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>474900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>397200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>426400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>367500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>345500</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3294,8 +3393,8 @@
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="X45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3306,62 +3405,65 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2547500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2582900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2472700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2459500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2935600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2776100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2893300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2602600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2581000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2594100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2753100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3096200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3144800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3247400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3542800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3677800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1380400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3371,8 +3473,8 @@
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
+      <c r="X46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y46" s="3">
         <v>0</v>
@@ -3383,37 +3485,40 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E47" s="3">
         <v>26400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>155700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>70200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>80400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>75300</v>
       </c>
       <c r="J47" s="3">
         <v>75300</v>
       </c>
       <c r="K47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="L47" s="3">
         <v>10700</v>
-      </c>
-      <c r="L47" s="3">
-        <v>10000</v>
       </c>
       <c r="M47" s="3">
         <v>10000</v>
@@ -3424,8 +3529,8 @@
       <c r="O47" s="3">
         <v>10000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>16</v>
+      <c r="P47" s="3">
+        <v>10000</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>16</v>
@@ -3442,8 +3547,8 @@
       <c r="U47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3460,62 +3565,65 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>534500</v>
+      </c>
+      <c r="E48" s="3">
         <v>448600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>563500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>582800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>526800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>521600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>557700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>570400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>569300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>589100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>619700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>650700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>668300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>629900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>571900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>485200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>425100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3525,8 +3633,8 @@
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="X48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3537,62 +3645,65 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E49" s="3">
         <v>337800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>342700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>351400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>228900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>231300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>235400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>240300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>244000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>248500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>254500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>262500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>269300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>241600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>241000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>250500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>259200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3602,8 +3713,8 @@
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="X49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,62 +3885,65 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1087000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1160800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1194900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1208200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1007000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1164500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1062700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1082900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1140900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1237200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1331000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1195000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1479400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1572500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1379400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1291000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1176200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3833,8 +3953,8 @@
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,62 +4045,65 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4529500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4556400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4600200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4757500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4768500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4773900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4824300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4571400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4545800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4679000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4968300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5214400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5571800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5691400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5735200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5704500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3240900</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3987,8 +4113,8 @@
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
+      <c r="X54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y54" s="3">
         <v>0</v>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,62 +4187,63 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E57" s="3">
         <v>107800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>90100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>95600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>129500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>127400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>77400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>69900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>84100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>48200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>540500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39400</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4122,8 +4253,8 @@
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
+      <c r="X57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
@@ -4134,50 +4265,53 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E58" s="3">
         <v>51300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>50200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>67100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>68500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="3">
         <v>57400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>53200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>56600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>63900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>72400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>80000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4193,8 +4327,8 @@
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4211,62 +4345,65 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2986300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2973400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2644500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2564800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2413100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2386800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2156700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2097800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1933800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1955200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1858900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1930700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2412500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2344600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2113100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1712700</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4276,8 +4413,8 @@
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4288,62 +4425,65 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3135400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3132600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2784800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2731900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2577200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2516400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2428100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2291500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2220800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2074500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2045200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1979600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2551100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2451400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2380800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2125800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1752100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4353,8 +4493,8 @@
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X60" s="3">
-        <v>0</v>
+      <c r="X60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y60" s="3">
         <v>0</v>
@@ -4365,50 +4505,53 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>812700</v>
+      </c>
+      <c r="E61" s="3">
         <v>823100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>830600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>826000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>801400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>655200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>662500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>670400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>656400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>650800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>633400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>638700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>102800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4442,62 +4585,65 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>199300</v>
+      </c>
+      <c r="E62" s="3">
         <v>212100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>219200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>232400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>231900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>261100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>277900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>244800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>259800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>277500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>286700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>299600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>310300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>385900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>364900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>301500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>268400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4507,8 +4653,8 @@
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,62 +4905,65 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4147500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4167800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3834700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3790300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3610500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3432700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3368400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3206600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3137000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3002800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2965200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2917900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2964300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2837300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2745600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2427300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2020500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4815,8 +4973,8 @@
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X66" s="3">
-        <v>0</v>
+      <c r="X66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y66" s="3">
         <v>0</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5061,11 +5229,11 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>5152000</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,62 +5335,65 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10128200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9940600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9352500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8930300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8553000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8362600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8079400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7979700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7727800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7300400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6842300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5229,8 +5403,8 @@
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X72" s="3">
-        <v>0</v>
+      <c r="X72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y72" s="3">
         <v>0</v>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,62 +5655,65 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>382000</v>
+      </c>
+      <c r="E76" s="3">
         <v>388700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>765500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>967300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1158000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1341200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1455900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1364800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1408900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1676200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2003100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2296600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2607500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2854100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2989500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3277100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5537,8 +5723,8 @@
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X76" s="3">
-        <v>0</v>
+      <c r="X76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y76" s="3">
         <v>0</v>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-588100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-422200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-377200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-196900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-283200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-99700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-251900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-427300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-458200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-459500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-437100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-398100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-356100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-463500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-644200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-248900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-249200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-178900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-234300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-239800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-194200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-126400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,73 +6012,74 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E83" s="3">
         <v>58000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>29100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>24100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V83" s="3">
         <v>2600</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="X83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,73 +6490,76 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-33600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-152300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>41500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-37600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-79500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-264600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-155600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-751700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-206900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-84800</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V89" s="3">
         <v>-36000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
+      <c r="X89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,73 +6602,74 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-49700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-43200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V91" s="3">
         <v>-17200</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,73 +6840,76 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>449400</v>
+      </c>
+      <c r="E94" s="3">
         <v>133500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>29400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>97400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-305700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>231000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>180600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>161100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>185400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-325500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>92900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>787700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-93100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>199900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>670300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V94" s="3">
         <v>251700</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,73 +7270,76 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-33300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-22000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-29100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-24300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-32000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>584600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>18000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-66600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2411000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-788200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V100" s="3">
         <v>39400</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
+      <c r="X100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -7104,73 +7350,76 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>16</v>
+      <c r="U101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="X101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -7181,73 +7430,76 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>347600</v>
+      </c>
+      <c r="E102" s="3">
         <v>79500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-30700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>60400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-248500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-341200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>243200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>133300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>57400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-102400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-513100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-74500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>564000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-121200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>143200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>38600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-202600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V102" s="3">
         <v>255200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
+      <c r="X102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>LYFT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1020900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1175000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1053800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>990700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>875600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>969900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>864400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>765000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>609000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>569900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>499700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>339300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>955700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1017100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>955600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>867300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>776000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>669600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>585000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>504900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>397200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>344600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>303500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>238900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>714200</v>
+      </c>
+      <c r="E9" s="3">
         <v>647900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>895100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>689900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>755700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>538900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>661000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>501900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>420500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>501000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>488400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>384800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>337100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>613700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>649900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>730500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>782100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>650100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>485600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>415100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>360600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>320500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>264000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>237300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>187000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>306700</v>
+      </c>
+      <c r="E10" s="3">
         <v>352600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>279900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>363900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>235000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>336700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>308900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>362500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>344500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>108000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>81500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>115000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>342000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>367200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>225100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>85200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>125900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>184000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>169900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>144300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>76700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>80600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>66200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>51900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>154600</v>
+      </c>
+      <c r="E12" s="3">
         <v>196900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>234600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>227700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>201800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>192800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>195000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>226700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>252000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>238200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>215200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>232100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>191400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>258700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>276600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>288300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>309800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>631000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>96100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>77200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>64400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>63200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>47700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>37200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>28200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,23 +1222,26 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>135700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1232,27 +1251,27 @@
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="3">
         <v>21300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>35300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>65100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1268,8 +1287,8 @@
       <c r="V14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1179400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1217300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1771000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1479900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1363900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1074900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1243600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1069400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1005100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1025400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1023300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>953100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>826800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1369800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1398900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1446500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1540200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1932900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>939600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>853600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>698500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>642600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>592000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>503100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>369500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-158500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-216800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-596000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-426100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-373200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-199300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-273700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-205000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-240100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-416400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-453400</v>
       </c>
       <c r="N18" s="3">
         <v>-453400</v>
       </c>
       <c r="O18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-487500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-414100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-381800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-490900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-672900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-270000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-268600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-193600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-245400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-247400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-199600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-130600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,157 +1615,161 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E20" s="3">
         <v>37300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>15400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>125000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>23800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>29300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>29600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>19800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>20600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>20000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>15000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>11400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>7800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-152300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-522600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-380700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-343100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-157800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-234800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-42900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-203800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-378400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-412800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-404200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-430900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-359500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-333900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-431400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-612200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>-246100</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-232800</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1743,53 +1779,56 @@
       <c r="AB21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E22" s="3">
         <v>5400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5000</v>
       </c>
       <c r="G22" s="3">
         <v>5000</v>
       </c>
       <c r="H22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I22" s="3">
         <v>4500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>13100</v>
       </c>
       <c r="J22" s="3">
         <v>13100</v>
       </c>
       <c r="K22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L22" s="3">
         <v>12800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1802,8 +1841,8 @@
       <c r="U22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1823,88 +1862,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-111600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-185000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-585800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-421600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-377200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-194100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-281200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-93100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-251200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-425400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-460600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-458400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-481900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-396400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-358000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-461600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-643200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-249300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-248700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-178700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-233900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-239700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-194100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-126200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,79 +1957,82 @@
         <v>2700</v>
       </c>
       <c r="E24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-44800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>200</v>
       </c>
       <c r="AA24" s="3">
         <v>200</v>
       </c>
       <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-114300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-187600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-588100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-422200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-377200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-196900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-283200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-99700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-251900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-427300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-458200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-459500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-437100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-398100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-356100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-463500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-644200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-248900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-249200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-178900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-234300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-239800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-194200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-126400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-114300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-187600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-588100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-422200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-377200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-196900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-283200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-99700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-251900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-427300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-458200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-459500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-437100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-398100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-356100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-463500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-644200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-248900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-249200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-178900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-234300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-239800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-194200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-126400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-37300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-15400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-125000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-23800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-29300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-29600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-19800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-20600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-20000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-15000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-7800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-114300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-187600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-588100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-422200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-377200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-196900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-283200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-99700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-251900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-427300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-458200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-459500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-437100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-398100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-356100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-463500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-644200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-248900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-249200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-178900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-234300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-239800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-194200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-126400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-114300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-187600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-588100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-422200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-377200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-196900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-283200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-99700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-251900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-427300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-458200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-459500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-437100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-398100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-356100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-463500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-644200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-248900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-249200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-178900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-234300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-239800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-194200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-126400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,65 +3093,66 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>638400</v>
+      </c>
+      <c r="E41" s="3">
         <v>509600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>281100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>143700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>239300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>214900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>457300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>728400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>484200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>312200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>319700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>424800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>841100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>597900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>358300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>543900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>417400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>329500</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3076,8 +3162,8 @@
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
@@ -3088,65 +3174,68 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1059700</v>
+      </c>
+      <c r="E42" s="3">
         <v>1245200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1515700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1639700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1567700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2021700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1796500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1653900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1761300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1925100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1931300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2028600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1934900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2072000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2491800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2572600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2892900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>705400</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3156,8 +3245,8 @@
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,65 +3423,68 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>781200</v>
+      </c>
+      <c r="E45" s="3">
         <v>792700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>786100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>689300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>652400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>699000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>522200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>511000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>357000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>343700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>343100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>299600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>320300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>474900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>397200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>426400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>367500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>345500</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3396,8 +3494,8 @@
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
+      <c r="Y45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3408,65 +3506,68 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2479300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2547500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2582900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2472700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2459500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2935600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2776100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2893300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2602600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2581000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2594100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2753100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3096200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3144800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3247400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3542800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3677800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1380400</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3476,8 +3577,8 @@
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z46" s="3">
         <v>0</v>
@@ -3488,40 +3589,43 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E47" s="3">
         <v>26500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>155700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>70200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>80400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>75300</v>
       </c>
       <c r="K47" s="3">
         <v>75300</v>
       </c>
       <c r="L47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="M47" s="3">
         <v>10700</v>
-      </c>
-      <c r="M47" s="3">
-        <v>10000</v>
       </c>
       <c r="N47" s="3">
         <v>10000</v>
@@ -3532,8 +3636,8 @@
       <c r="P47" s="3">
         <v>10000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>16</v>
+      <c r="Q47" s="3">
+        <v>10000</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>16</v>
@@ -3550,8 +3654,8 @@
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3568,65 +3672,68 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>578200</v>
+      </c>
+      <c r="E48" s="3">
         <v>534500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>448600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>563500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>582800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>526800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>521600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>557700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>570400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>569300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>589100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>619700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>650700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>668300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>629900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>571900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>485200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>425100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3636,8 +3743,8 @@
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
@@ -3648,65 +3755,68 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>329100</v>
+      </c>
+      <c r="E49" s="3">
         <v>334000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>337800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>342700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>351400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>228900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>231300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>235400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>240300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>244000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>248500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>254500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>262500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>269300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>241600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>241000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>250500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>259200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3716,8 +3826,8 @@
       <c r="X49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,65 +4004,68 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1019700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1087000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1160800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1194900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1208200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1007000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1164500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1062700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1082900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1140900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1237200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1331000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1195000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1479400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1572500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1379400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1291000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1176200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3956,8 +4075,8 @@
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,65 +4170,68 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4446200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4529500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4556400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4600200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4757500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4768500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4773900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4824300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4571400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4545800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4679000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4968300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5214400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5571800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5691400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5735200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5704500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3240900</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4116,8 +4241,8 @@
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
+      <c r="Y54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z54" s="3">
         <v>0</v>
@@ -4128,8 +4253,11 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,65 +4317,66 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E57" s="3">
         <v>103300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>107800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>90100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>95600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>129500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>127400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>77400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>69900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>84100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>48200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>540500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39400</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4256,8 +4386,8 @@
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
+      <c r="Y57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
@@ -4268,53 +4398,56 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E58" s="3">
         <v>45900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>51300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>50200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>67100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>68500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="3">
         <v>57400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>53200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>56600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>63900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>72400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>80000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4330,8 +4463,8 @@
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4348,65 +4481,68 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2915300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2986300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2973400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2644500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2564800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2413100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2386800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2156700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2097800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1933800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1955200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1858900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1930700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2412500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2344600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2113100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1712700</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4416,8 +4552,8 @@
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4428,65 +4564,68 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3020400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3135400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3132600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2784800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2731900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2577200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2516400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2428100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2291500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2220800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2074500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2045200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1979600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2551100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2451400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2380800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2125800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1752100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4496,8 +4635,8 @@
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y60" s="3">
-        <v>0</v>
+      <c r="Y60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z60" s="3">
         <v>0</v>
@@ -4508,53 +4647,56 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>850100</v>
+      </c>
+      <c r="E61" s="3">
         <v>812700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>823100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>830600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>826000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>801400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>655200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>662500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>670400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>656400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>650800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>633400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>638700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>102800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4588,65 +4730,68 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>188600</v>
+      </c>
+      <c r="E62" s="3">
         <v>199300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>212100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>219200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>232400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>231900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>261100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>277900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>244800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>259800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>277500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>286700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>299600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>310300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>385900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>364900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>301500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>268400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4656,8 +4801,8 @@
       <c r="X62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,65 +5062,68 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4059200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4147500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4167800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3834700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3790300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3610500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3432700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3368400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3206600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3137000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3002800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2965200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2917900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2964300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2837300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2745600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2427300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2020500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4976,8 +5133,8 @@
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y66" s="3">
-        <v>0</v>
+      <c r="Y66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z66" s="3">
         <v>0</v>
@@ -4988,8 +5145,11 @@
       <c r="AB66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5232,11 +5399,11 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>5152000</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,65 +5508,68 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10242500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10128200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9940600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9352500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8930300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8553000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8362600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8079400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7979700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7727800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7300400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6842300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5406,8 +5579,8 @@
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y72" s="3">
-        <v>0</v>
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z72" s="3">
         <v>0</v>
@@ -5418,8 +5591,11 @@
       <c r="AB72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,65 +5840,68 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E76" s="3">
         <v>382000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>388700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>765500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>967300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1158000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1341200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1455900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1364800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1408900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1676200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2003100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2296600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2607500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2854100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2989500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3277100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5726,8 +5911,8 @@
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y76" s="3">
-        <v>0</v>
+      <c r="Y76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z76" s="3">
         <v>0</v>
@@ -5738,8 +5923,11 @@
       <c r="AB76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-114300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-187600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-588100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-422200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-377200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-196900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-283200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-99700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-251900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-427300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-458200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-459500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-437100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-398100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-356100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-463500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-644200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-248900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-249200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-178900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-234300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-239800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-194200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-126400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,76 +6210,77 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E83" s="3">
         <v>27200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>58000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>29100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>44500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>24100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>31100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W83" s="3">
         <v>2600</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
+      <c r="Y83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,76 +6706,79 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-74000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-152300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-26200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>41500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-37600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-79500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-264600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-155600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-751700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-206900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-46200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-84800</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W89" s="3">
         <v>-36000</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
+      <c r="Y89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,76 +6822,77 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-46800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-49700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-60100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-43200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W91" s="3">
         <v>-17200</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,76 +7069,79 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>391500</v>
+      </c>
+      <c r="E94" s="3">
         <v>449400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>133500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>29400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>97400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-74200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-305700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>231000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>180600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>161100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>185400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-325500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>92900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>787700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-93100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>199900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>670300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W94" s="3">
         <v>251700</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,76 +7515,79 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-27700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-20600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-33300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-22000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-29100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-24300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-32000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>584600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>18000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-66600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2411000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-788200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W100" s="3">
         <v>39400</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
+      <c r="Y100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7353,76 +7598,79 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>16</v>
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -7433,76 +7681,79 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>266200</v>
+      </c>
+      <c r="E102" s="3">
         <v>347600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>79500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-30700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>60400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-248500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-341200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>243200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>133300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>57400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-102400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-513100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-74500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>564000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-121200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>143200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>38600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-202600</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W102" s="3">
         <v>255200</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
+      <c r="Y102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LYFT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,383 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1157600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1020900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1175000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1053800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>990700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>875600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>969900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>864400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>765000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>609000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>569900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>499700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>339300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>955700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1017100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>955600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>867300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>776000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>669600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>585000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>504900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>397200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>344600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>303500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>238900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>172800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>763300</v>
+      </c>
+      <c r="E9" s="3">
         <v>714200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>647900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>895100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>689900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>755700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>538900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>661000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>501900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>420500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>501000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>488400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>384800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>337100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>613700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>649900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>730500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>782100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>650100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>485600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>415100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>360600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>320500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>264000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>237300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>187000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>154800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>394300</v>
+      </c>
+      <c r="E10" s="3">
         <v>306700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>352600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>279900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>363900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>235000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>336700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>308900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>362500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>344500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>108000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>81500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>115000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>342000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>367200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>225100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>85200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>125900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>184000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>169900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>144300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>76700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>80600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>66200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>51900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1071,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E12" s="3">
         <v>154600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>196900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>234600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>227700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>201800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>192800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>195000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>226700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>252000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>238200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>215200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>232100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>191400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>258700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>276600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>288300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>309800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>631000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>96100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>77200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>64400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>63200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>47700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>37200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>28200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,26 +1241,29 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>135700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1254,27 +1273,27 @@
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="3">
         <v>21300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>35300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>65100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1290,8 +1309,8 @@
       <c r="W14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1308,8 +1327,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1413,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1444,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1197700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1179400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1217300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1771000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1479900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1363900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1074900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1243600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1069400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1005100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1025400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1023300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>953100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>826800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1369800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1398900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1446500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1540200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1932900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>939600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>853600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>698500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>642600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>592000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>503100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>369500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>303500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-158500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-216800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-596000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-426100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-373200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-199300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-273700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-205000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-240100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-416400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-453400</v>
       </c>
       <c r="O18" s="3">
         <v>-453400</v>
       </c>
       <c r="P18" s="3">
+        <v>-453400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-487500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-414100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-381800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-490900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-672900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1156900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-270000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-268600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-193600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-245400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-247400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-199600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-130600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-130700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,163 +1648,167 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E20" s="3">
         <v>53100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>37300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>125000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>23800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>29300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>29600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>19800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>20600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>20000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>15000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>11400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>7800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>5500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>4400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-76800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-152300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-522600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-380700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-343100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-157800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-234800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-42900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-203800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-378400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-412800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-404200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-430900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-359500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-333900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-431400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-612200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1114000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3">
         <v>-246100</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-232800</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1782,8 +1818,11 @@
       <c r="AC21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,47 +1830,47 @@
         <v>6200</v>
       </c>
       <c r="E22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F22" s="3">
         <v>5400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5000</v>
       </c>
       <c r="H22" s="3">
         <v>5000</v>
       </c>
       <c r="I22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J22" s="3">
         <v>4500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>13100</v>
       </c>
       <c r="K22" s="3">
         <v>13100</v>
       </c>
       <c r="L22" s="3">
+        <v>13100</v>
+      </c>
+      <c r="M22" s="3">
         <v>12800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1500</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1844,8 +1883,8 @@
       <c r="V22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1865,174 +1904,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-111600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-185000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-585800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-421600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-377200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-194100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-281200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-93100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-251200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-425400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-460600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-458400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-481900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-396400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-358000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-461600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-643200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1137100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-249300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-248700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-178700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-233900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-239700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-194100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-126200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-127800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2700</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>2700</v>
       </c>
       <c r="F24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-44800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>200</v>
       </c>
       <c r="AB24" s="3">
         <v>200</v>
       </c>
       <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2162,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-114300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-187600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-588100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-422200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-377200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-196900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-283200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-99700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-251900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-427300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-458200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-459500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-437100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-398100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-356100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-463500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-644200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1138500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-248900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-249200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-178900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-234300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-239800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-194200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-126400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-114300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-187600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-588100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-422200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-377200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-196900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-283200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-99700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-251900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-427300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-458200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-459500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-437100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-398100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-356100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-463500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-644200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1138500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-248900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-249200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-178900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-234300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-239800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-194200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-126400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2506,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2678,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-53100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-37300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-125000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-23800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-29300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-29600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-19800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-20600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-20000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-11400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-7800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-4400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-114300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-187600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-588100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-422200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-377200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-196900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-283200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-99700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-251900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-427300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-458200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-459500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-437100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-398100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-356100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-463500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-644200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1138500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-248900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-249200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-178900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-234300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-239800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-194200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-126400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2936,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-114300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-187600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-588100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-422200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-377200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-196900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-283200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-99700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-251900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-427300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-458200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-459500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-437100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-398100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-356100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-463500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-644200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1138500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-248900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-249200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-178900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-234300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-239800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-194200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-126400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,68 +3179,69 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>590500</v>
+      </c>
+      <c r="E41" s="3">
         <v>638400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>509600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>281100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>143700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>239300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>214900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>457300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>728400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>484200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>312200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>319700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>424800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>841100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>597900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>358300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>543900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>417400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>329500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3165,8 +3251,8 @@
       <c r="Y41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
+      <c r="Z41" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
@@ -3177,68 +3263,71 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1076100</v>
+      </c>
+      <c r="E42" s="3">
         <v>1059700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1245200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1515700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1639700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1567700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2021700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1796500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1653900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1761300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1925100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1931300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2028600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1934900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2072000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2491800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2572600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2892900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>705400</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3248,8 +3337,8 @@
       <c r="Y42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3260,8 +3349,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,8 +3435,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,68 +3521,71 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>833600</v>
+      </c>
+      <c r="E45" s="3">
         <v>781200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>792700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>786100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>689300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>652400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>699000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>522200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>511000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>357000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>343700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>343100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>299600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>320300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>474900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>397200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>426400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>367500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>345500</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3497,8 +3595,8 @@
       <c r="Y45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="Z45" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3509,68 +3607,71 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2500200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2479300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2547500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2582900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2472700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2459500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2935600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2776100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2893300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2602600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2581000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2594100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2753100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3096200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3144800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3247400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3542800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3677800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1380400</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3580,8 +3681,8 @@
       <c r="Y46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
+      <c r="Z46" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA46" s="3">
         <v>0</v>
@@ -3592,43 +3693,46 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E47" s="3">
         <v>39900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>26500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>26400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>26300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>155700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>70200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>80400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>75300</v>
       </c>
       <c r="L47" s="3">
         <v>75300</v>
       </c>
       <c r="M47" s="3">
+        <v>75300</v>
+      </c>
+      <c r="N47" s="3">
         <v>10700</v>
-      </c>
-      <c r="N47" s="3">
-        <v>10000</v>
       </c>
       <c r="O47" s="3">
         <v>10000</v>
@@ -3639,8 +3743,8 @@
       <c r="Q47" s="3">
         <v>10000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>16</v>
+      <c r="R47" s="3">
+        <v>10000</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>16</v>
@@ -3657,8 +3761,8 @@
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3675,68 +3779,71 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>577300</v>
+      </c>
+      <c r="E48" s="3">
         <v>578200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>534500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>448600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>563500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>582800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>526800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>521600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>557700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>570400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>569300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>589100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>619700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>650700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>668300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>629900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>571900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>485200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>425100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3746,8 +3853,8 @@
       <c r="Y48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
+      <c r="Z48" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
@@ -3758,68 +3865,71 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>318200</v>
+      </c>
+      <c r="E49" s="3">
         <v>329100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>334000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>337800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>342700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>351400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>228900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>231300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>235400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>240300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>244000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>248500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>254500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>262500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>269300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>241600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>241000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>250500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>259200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3829,8 +3939,8 @@
       <c r="Y49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -3841,8 +3951,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,68 +4123,71 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1043100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1019700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1087000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1160800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1194900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1208200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1007000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1164500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1062700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1082900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1140900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1237200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1331000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1195000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1479400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1572500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1379400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1291000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1176200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
@@ -4078,8 +4197,8 @@
       <c r="Y52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Z52" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -4090,8 +4209,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,68 +4295,71 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4478200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4446200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4529500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4556400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4600200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4757500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4768500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4773900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4824300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4571400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4545800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4679000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4968300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5214400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5571800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5691400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5735200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5704500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3240900</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4244,8 +4369,8 @@
       <c r="Y54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z54" s="3">
-        <v>0</v>
+      <c r="Z54" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA54" s="3">
         <v>0</v>
@@ -4256,8 +4381,11 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,68 +4447,69 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E57" s="3">
         <v>62200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>103300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>107800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>90100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>95600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>129500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>127400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>77400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>69900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>84100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>540500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39400</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4389,8 +4519,8 @@
       <c r="Y57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
+      <c r="Z57" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
@@ -4401,56 +4531,59 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E58" s="3">
         <v>42900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>45900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>51300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>50200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>67100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>68500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="3">
         <v>57400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>53200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>56600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>63900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>72400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>80000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4466,8 +4599,8 @@
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4484,68 +4617,71 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2843800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2915300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2986300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2973400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2644500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2564800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2413100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2386800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2156700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2097800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1933800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1955200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1858900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1930700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2412500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2344600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2113100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1712700</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4555,8 +4691,8 @@
       <c r="Y59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
+      <c r="Z59" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
@@ -4567,68 +4703,71 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2948900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3020400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3135400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3132600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2784800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2731900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2577200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2516400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2428100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2291500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2220800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2074500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2045200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1979600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2551100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2451400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2380800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2125800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1752100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4638,8 +4777,8 @@
       <c r="Y60" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z60" s="3">
-        <v>0</v>
+      <c r="Z60" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA60" s="3">
         <v>0</v>
@@ -4650,56 +4789,59 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>888200</v>
+      </c>
+      <c r="E61" s="3">
         <v>850100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>812700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>823100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>830600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>826000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>801400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>655200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>662500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>670400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>656400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>650800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>633400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>638700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>102800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4733,68 +4875,71 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>172900</v>
+      </c>
+      <c r="E62" s="3">
         <v>188600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>199300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>212100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>219200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>232400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>231900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>261100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>277900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>244800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>259800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>277500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>286700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>299600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>310300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>385900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>364900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>301500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>268400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4804,8 +4949,8 @@
       <c r="Y62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -4816,8 +4961,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,68 +5219,71 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4009900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4059200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4147500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4167800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3834700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3790300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3610500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3432700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3368400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3206600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3137000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3002800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2965200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2917900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2964300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2837300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2745600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2427300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2020500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
@@ -5136,8 +5293,8 @@
       <c r="Y66" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z66" s="3">
-        <v>0</v>
+      <c r="Z66" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA66" s="3">
         <v>0</v>
@@ -5148,8 +5305,11 @@
       <c r="AC66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5402,11 +5569,11 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>5152000</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -5428,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,68 +5681,71 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10254600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10242500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10128200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9940600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9352500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8930300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8553000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8362600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8079400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7979700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7727800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7300400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6842300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6382800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5945600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5547600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5191500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4728000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4083800</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5582,8 +5755,8 @@
       <c r="Y72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z72" s="3">
-        <v>0</v>
+      <c r="Z72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA72" s="3">
         <v>0</v>
@@ -5594,8 +5767,11 @@
       <c r="AC72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,68 +6025,71 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>468300</v>
+      </c>
+      <c r="E76" s="3">
         <v>387000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>382000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>388700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>765500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>967300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1158000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1341200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1455900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1364800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1408900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1676200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2003100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2296600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2607500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2854100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2989500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3277100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3931600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5914,8 +6099,8 @@
       <c r="Y76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z76" s="3">
-        <v>0</v>
+      <c r="Z76" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA76" s="3">
         <v>0</v>
@@ -5926,8 +6111,11 @@
       <c r="AC76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6197,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-114300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-187600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-588100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-422200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-377200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-196900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-283200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-99700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-251900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-427300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-458200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-459500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-437100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-398100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-356100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-463500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-644200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1138500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-248900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-249200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-178900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-234300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-239800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-194200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-126400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-127900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,79 +6408,80 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E83" s="3">
         <v>28600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>58000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>29100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>44500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>24100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>31100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>23100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X83" s="3">
         <v>2600</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
+      <c r="Z83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
@@ -6294,8 +6492,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,79 +6922,82 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-70000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-74000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-152300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-26200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-37600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-79500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-264600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-155600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-751700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-206900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-46200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>15300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-84800</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X89" s="3">
         <v>-36000</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
+      <c r="Z89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
@@ -6792,8 +7008,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,79 +7042,80 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-46800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-49700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-60100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-43200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X91" s="3">
         <v>-17200</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -6906,8 +7126,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,79 +7298,82 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-134100</v>
+      </c>
+      <c r="E94" s="3">
         <v>391500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>449400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>133500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>29400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>97400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-74200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-305700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>231000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>180600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>161100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>185400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-325500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>92900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>787700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-93100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>199900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2387900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>670300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X94" s="3">
         <v>251700</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -7155,8 +7384,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7502,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,79 +7760,82 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-33300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-22000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-24300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-32000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>584600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>18000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-66600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2411000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-788200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X100" s="3">
         <v>39400</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
+      <c r="Z100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -7601,79 +7846,82 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>16</v>
+      <c r="W101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
+      <c r="Z101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
@@ -7684,79 +7932,82 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-154900</v>
+      </c>
+      <c r="E102" s="3">
         <v>266200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>347600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>79500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-30700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>60400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-248500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-341200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>243200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>133300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>57400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-102400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-513100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-74500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>564000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-121200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>143200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>38600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-202600</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="3">
         <v>255200</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
+      <c r="Z102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA102" s="3">
         <v>0</v>
@@ -7765,6 +8016,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>
